--- a/migforecasting/cities13-14/1/d12.xlsx
+++ b/migforecasting/cities13-14/1/d12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities13-14\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>Балашиха</t>
   </si>
   <si>
-    <t>Домоде-дово</t>
-  </si>
-  <si>
     <t>Железнодорожный</t>
   </si>
   <si>
@@ -2590,6 +2587,9 @@
   </si>
   <si>
     <t>0,5</t>
+  </si>
+  <si>
+    <t>Домодедово</t>
   </si>
 </sst>
 </file>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="Y80" sqref="Y80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,61 +3006,61 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" t="s">
         <v>237</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>238</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>239</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>240</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>241</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>242</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>243</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>244</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>245</v>
-      </c>
-      <c r="V2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3133,37 +3133,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3171,67 +3171,67 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" t="s">
         <v>247</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>248</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>249</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>250</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>251</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>252</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>253</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>254</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>255</v>
-      </c>
-      <c r="V5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3239,61 +3239,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3301,67 +3301,67 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" t="s">
         <v>257</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>258</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>259</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>260</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>261</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>262</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>263</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>264</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>265</v>
-      </c>
-      <c r="V7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3369,67 +3369,67 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" t="s">
+        <v>266</v>
+      </c>
+      <c r="N8" t="s">
         <v>267</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
         <v>268</v>
       </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>269</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" t="s">
         <v>270</v>
       </c>
-      <c r="R8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
         <v>271</v>
-      </c>
-      <c r="T8" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3437,67 +3437,67 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
       <c r="M9" t="s">
+        <v>272</v>
+      </c>
+      <c r="N9" t="s">
         <v>273</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>274</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>275</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>276</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>277</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>278</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>279</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>280</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>281</v>
-      </c>
-      <c r="V9" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3505,67 +3505,67 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>65</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>66</v>
       </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
+        <v>282</v>
+      </c>
+      <c r="O10" t="s">
         <v>283</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>284</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>285</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>286</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>287</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>288</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>289</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>290</v>
-      </c>
-      <c r="V10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3573,67 +3573,67 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
       <c r="M11" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
         <v>292</v>
       </c>
-      <c r="N11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
         <v>293</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>294</v>
+      </c>
+      <c r="T11" t="s">
+        <v>295</v>
+      </c>
+      <c r="U11" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s">
         <v>41</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>294</v>
-      </c>
-      <c r="R11" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11" t="s">
-        <v>295</v>
-      </c>
-      <c r="T11" t="s">
-        <v>296</v>
-      </c>
-      <c r="U11" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3641,67 +3641,67 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>296</v>
+      </c>
+      <c r="N12" t="s">
+        <v>297</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>298</v>
+      </c>
+      <c r="R12" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" t="s">
+        <v>300</v>
+      </c>
+      <c r="T12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s">
         <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" t="s">
-        <v>297</v>
-      </c>
-      <c r="N12" t="s">
-        <v>298</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>299</v>
-      </c>
-      <c r="R12" t="s">
-        <v>300</v>
-      </c>
-      <c r="S12" t="s">
-        <v>301</v>
-      </c>
-      <c r="T12" t="s">
-        <v>187</v>
-      </c>
-      <c r="U12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3709,67 +3709,67 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>95</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
       <c r="M13" t="s">
+        <v>301</v>
+      </c>
+      <c r="N13" t="s">
         <v>302</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>303</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>304</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>305</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>306</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>307</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>308</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>309</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>310</v>
-      </c>
-      <c r="V13" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3777,67 +3777,67 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>100</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>105</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>106</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>107</v>
       </c>
-      <c r="L14" t="s">
-        <v>108</v>
-      </c>
       <c r="M14" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" t="s">
         <v>312</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>313</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>314</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>315</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>316</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>317</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>318</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>319</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>320</v>
-      </c>
-      <c r="V14" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3845,37 +3845,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3883,67 +3883,67 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
         <v>114</v>
       </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
       <c r="M16" t="s">
+        <v>321</v>
+      </c>
+      <c r="N16" t="s">
         <v>322</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>323</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>324</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>325</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>326</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>322</v>
+      </c>
+      <c r="T16" t="s">
         <v>327</v>
       </c>
-      <c r="S16" t="s">
-        <v>323</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
+        <v>165</v>
+      </c>
+      <c r="V16" t="s">
         <v>328</v>
-      </c>
-      <c r="U16" t="s">
-        <v>166</v>
-      </c>
-      <c r="V16" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3951,67 +3951,67 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>122</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>124</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>125</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>127</v>
       </c>
-      <c r="K17" t="s">
-        <v>128</v>
-      </c>
       <c r="L17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N17" t="s">
+        <v>329</v>
+      </c>
+      <c r="O17" t="s">
         <v>330</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" t="s">
         <v>331</v>
       </c>
-      <c r="P17" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" t="s">
+        <v>122</v>
+      </c>
+      <c r="U17" t="s">
+        <v>126</v>
+      </c>
+      <c r="V17" t="s">
         <v>332</v>
-      </c>
-      <c r="S17" t="s">
-        <v>127</v>
-      </c>
-      <c r="T17" t="s">
-        <v>123</v>
-      </c>
-      <c r="U17" t="s">
-        <v>127</v>
-      </c>
-      <c r="V17" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -4019,34 +4019,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="J18" s="2">
         <v>400</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L18" s="2">
         <v>150</v>
@@ -4055,10 +4055,10 @@
         <v>270</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="P18" s="2">
         <v>140</v>
@@ -4067,19 +4067,19 @@
         <v>135</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S18" s="2">
         <v>220</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U18" s="2">
         <v>200</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -4087,67 +4087,67 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -4155,67 +4155,67 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>142</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>143</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>144</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>145</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>146</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>148</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>149</v>
       </c>
-      <c r="L20" t="s">
-        <v>150</v>
-      </c>
       <c r="M20" t="s">
+        <v>339</v>
+      </c>
+      <c r="N20" t="s">
         <v>340</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>341</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>342</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>343</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>344</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>345</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>346</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>347</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>348</v>
-      </c>
-      <c r="V20" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -4223,67 +4223,67 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
         <v>151</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
         <v>152</v>
       </c>
-      <c r="E21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>153</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>154</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>155</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
         <v>156</v>
       </c>
-      <c r="J21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" t="s">
-        <v>157</v>
-      </c>
       <c r="L21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N21" t="s">
+        <v>349</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" t="s">
         <v>350</v>
       </c>
-      <c r="O21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>127</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
+        <v>126</v>
+      </c>
+      <c r="T21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" t="s">
+        <v>126</v>
+      </c>
+      <c r="V21" t="s">
         <v>351</v>
-      </c>
-      <c r="S21" t="s">
-        <v>127</v>
-      </c>
-      <c r="T21" t="s">
-        <v>127</v>
-      </c>
-      <c r="U21" t="s">
-        <v>127</v>
-      </c>
-      <c r="V21" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -4291,67 +4291,67 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
         <v>158</v>
       </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>159</v>
       </c>
-      <c r="E22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>160</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>161</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>162</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
         <v>163</v>
       </c>
-      <c r="J22" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" t="s">
-        <v>164</v>
-      </c>
       <c r="L22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N22" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
         <v>353</v>
       </c>
-      <c r="O22" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" t="s">
+        <v>136</v>
+      </c>
+      <c r="V22" t="s">
         <v>354</v>
-      </c>
-      <c r="S22" t="s">
-        <v>137</v>
-      </c>
-      <c r="T22" t="s">
-        <v>137</v>
-      </c>
-      <c r="U22" t="s">
-        <v>137</v>
-      </c>
-      <c r="V22" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -4359,67 +4359,67 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>166</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" t="s">
         <v>167</v>
       </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>168</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>169</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>170</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>171</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>172</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>173</v>
       </c>
-      <c r="L23" t="s">
-        <v>174</v>
-      </c>
       <c r="M23" t="s">
+        <v>355</v>
+      </c>
+      <c r="N23" t="s">
         <v>356</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>357</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>358</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>359</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>360</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>361</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>362</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>363</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>364</v>
-      </c>
-      <c r="V23" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -4427,67 +4427,67 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
         <v>175</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>176</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>177</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>178</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>179</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>180</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>181</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>182</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s">
         <v>183</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
+        <v>365</v>
+      </c>
+      <c r="N24" t="s">
         <v>176</v>
       </c>
-      <c r="L24" t="s">
-        <v>184</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>366</v>
       </c>
-      <c r="N24" t="s">
-        <v>177</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>367</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" t="s">
+        <v>176</v>
+      </c>
+      <c r="S24" t="s">
+        <v>179</v>
+      </c>
+      <c r="T24" t="s">
         <v>368</v>
       </c>
-      <c r="Q24" t="s">
-        <v>179</v>
-      </c>
-      <c r="R24" t="s">
-        <v>177</v>
-      </c>
-      <c r="S24" t="s">
-        <v>180</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>369</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>370</v>
-      </c>
-      <c r="V24" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4495,31 +4495,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -4527,67 +4527,67 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
         <v>186</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>187</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>189</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>190</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
         <v>191</v>
       </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>192</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>193</v>
       </c>
-      <c r="K26" t="s">
-        <v>194</v>
-      </c>
       <c r="L26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s">
+        <v>371</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" t="s">
+        <v>201</v>
+      </c>
+      <c r="S26" t="s">
         <v>372</v>
       </c>
-      <c r="N26" t="s">
-        <v>197</v>
-      </c>
-      <c r="O26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" t="s">
-        <v>202</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
+        <v>71</v>
+      </c>
+      <c r="U26" t="s">
         <v>373</v>
       </c>
-      <c r="T26" t="s">
-        <v>72</v>
-      </c>
-      <c r="U26" t="s">
-        <v>374</v>
-      </c>
       <c r="V26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -4595,67 +4595,67 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
         <v>195</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>196</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>197</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>198</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>199</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>200</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>201</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>203</v>
       </c>
-      <c r="K27" t="s">
-        <v>204</v>
-      </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
+        <v>374</v>
+      </c>
+      <c r="N27" t="s">
         <v>375</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q27" t="s">
         <v>376</v>
       </c>
-      <c r="O27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>377</v>
       </c>
-      <c r="R27" t="s">
-        <v>378</v>
-      </c>
       <c r="S27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -4671,67 +4671,67 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
         <v>206</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>207</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>208</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>209</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
         <v>210</v>
       </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>211</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s">
         <v>212</v>
       </c>
-      <c r="J29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" t="s">
-        <v>213</v>
-      </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N29" t="s">
+        <v>378</v>
+      </c>
+      <c r="O29" t="s">
         <v>379</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>126</v>
+      </c>
+      <c r="R29" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" t="s">
+        <v>126</v>
+      </c>
+      <c r="T29" t="s">
         <v>380</v>
       </c>
-      <c r="P29" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>127</v>
-      </c>
-      <c r="R29" t="s">
-        <v>127</v>
-      </c>
-      <c r="S29" t="s">
-        <v>127</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
+        <v>126</v>
+      </c>
+      <c r="V29" t="s">
         <v>381</v>
-      </c>
-      <c r="U29" t="s">
-        <v>127</v>
-      </c>
-      <c r="V29" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4739,67 +4739,67 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
         <v>214</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>215</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>216</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
         <v>218</v>
       </c>
-      <c r="G30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" t="s">
         <v>219</v>
       </c>
-      <c r="J30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" t="s">
-        <v>220</v>
-      </c>
       <c r="L30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N30" t="s">
+        <v>382</v>
+      </c>
+      <c r="O30" t="s">
         <v>383</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" t="s">
+        <v>263</v>
+      </c>
+      <c r="U30" t="s">
+        <v>136</v>
+      </c>
+      <c r="V30" t="s">
         <v>384</v>
-      </c>
-      <c r="P30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>137</v>
-      </c>
-      <c r="R30" t="s">
-        <v>137</v>
-      </c>
-      <c r="S30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T30" t="s">
-        <v>264</v>
-      </c>
-      <c r="U30" t="s">
-        <v>137</v>
-      </c>
-      <c r="V30" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4807,7 +4807,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4815,67 +4815,67 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
         <v>222</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>223</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>224</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
         <v>225</v>
       </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>226</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" t="s">
         <v>227</v>
       </c>
-      <c r="J32" t="s">
-        <v>127</v>
-      </c>
-      <c r="K32" t="s">
-        <v>228</v>
-      </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N32" t="s">
+        <v>385</v>
+      </c>
+      <c r="O32" t="s">
         <v>386</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" t="s">
+        <v>126</v>
+      </c>
+      <c r="T32" t="s">
         <v>387</v>
       </c>
-      <c r="P32" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>127</v>
-      </c>
-      <c r="R32" t="s">
-        <v>127</v>
-      </c>
-      <c r="S32" t="s">
-        <v>127</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
+        <v>126</v>
+      </c>
+      <c r="V32" t="s">
         <v>388</v>
-      </c>
-      <c r="U32" t="s">
-        <v>127</v>
-      </c>
-      <c r="V32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4883,67 +4883,67 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" t="s">
         <v>229</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>230</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>231</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" t="s">
         <v>232</v>
       </c>
-      <c r="G33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>233</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" t="s">
         <v>234</v>
       </c>
-      <c r="J33" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" t="s">
-        <v>235</v>
-      </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N33" t="s">
+        <v>389</v>
+      </c>
+      <c r="O33" t="s">
         <v>390</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>136</v>
+      </c>
+      <c r="R33" t="s">
+        <v>136</v>
+      </c>
+      <c r="S33" t="s">
+        <v>136</v>
+      </c>
+      <c r="T33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U33" t="s">
+        <v>136</v>
+      </c>
+      <c r="V33" t="s">
         <v>391</v>
-      </c>
-      <c r="P33" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>137</v>
-      </c>
-      <c r="R33" t="s">
-        <v>137</v>
-      </c>
-      <c r="S33" t="s">
-        <v>137</v>
-      </c>
-      <c r="T33" t="s">
-        <v>233</v>
-      </c>
-      <c r="U33" t="s">
-        <v>137</v>
-      </c>
-      <c r="V33" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -4951,67 +4951,67 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -5029,67 +5029,67 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" t="s">
         <v>394</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>395</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>396</v>
       </c>
-      <c r="E36" t="s">
-        <v>397</v>
-      </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O36" t="s">
+        <v>515</v>
+      </c>
+      <c r="P36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>126</v>
+      </c>
+      <c r="R36" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36" t="s">
+        <v>126</v>
+      </c>
+      <c r="T36" t="s">
         <v>516</v>
       </c>
-      <c r="P36" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>127</v>
-      </c>
-      <c r="R36" t="s">
-        <v>127</v>
-      </c>
-      <c r="S36" t="s">
-        <v>127</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
+        <v>126</v>
+      </c>
+      <c r="V36" t="s">
         <v>517</v>
-      </c>
-      <c r="U36" t="s">
-        <v>127</v>
-      </c>
-      <c r="V36" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -5098,67 +5098,67 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" t="s">
         <v>398</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>399</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>400</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
         <v>401</v>
       </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" t="s">
-        <v>402</v>
-      </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s">
+        <v>518</v>
+      </c>
+      <c r="O37" t="s">
         <v>519</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" t="s">
+        <v>136</v>
+      </c>
+      <c r="S37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T37" t="s">
         <v>520</v>
       </c>
-      <c r="P37" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>137</v>
-      </c>
-      <c r="R37" t="s">
-        <v>137</v>
-      </c>
-      <c r="S37" t="s">
-        <v>137</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
+        <v>136</v>
+      </c>
+      <c r="V37" t="s">
         <v>521</v>
-      </c>
-      <c r="U37" t="s">
-        <v>137</v>
-      </c>
-      <c r="V37" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -5167,67 +5167,67 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -5236,7 +5236,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -5245,67 +5245,67 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" t="s">
         <v>405</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>406</v>
       </c>
-      <c r="E40" t="s">
-        <v>407</v>
-      </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -5314,67 +5314,67 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
+        <v>407</v>
+      </c>
+      <c r="D41" t="s">
         <v>408</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>409</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>410</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s">
         <v>411</v>
       </c>
-      <c r="G41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" t="s">
-        <v>412</v>
-      </c>
       <c r="I41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" t="s">
+        <v>523</v>
+      </c>
+      <c r="O41" t="s">
         <v>524</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" t="s">
+        <v>136</v>
+      </c>
+      <c r="S41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T41" t="s">
         <v>525</v>
       </c>
-      <c r="P41" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>137</v>
-      </c>
-      <c r="R41" t="s">
-        <v>137</v>
-      </c>
-      <c r="S41" t="s">
-        <v>137</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
+        <v>136</v>
+      </c>
+      <c r="V41" t="s">
         <v>526</v>
-      </c>
-      <c r="U41" t="s">
-        <v>137</v>
-      </c>
-      <c r="V41" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -5383,67 +5383,67 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
         <v>413</v>
       </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>414</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" t="s">
         <v>415</v>
       </c>
-      <c r="G42" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" t="s">
-        <v>416</v>
-      </c>
       <c r="I42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T42" t="s">
+        <v>527</v>
+      </c>
+      <c r="U42" t="s">
+        <v>126</v>
+      </c>
+      <c r="V42" t="s">
         <v>528</v>
-      </c>
-      <c r="U42" t="s">
-        <v>127</v>
-      </c>
-      <c r="V42" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -5452,67 +5452,67 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
         <v>417</v>
       </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>418</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
         <v>419</v>
       </c>
-      <c r="G43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" t="s">
-        <v>420</v>
-      </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T43" t="s">
+        <v>529</v>
+      </c>
+      <c r="U43" t="s">
+        <v>136</v>
+      </c>
+      <c r="V43" t="s">
         <v>530</v>
-      </c>
-      <c r="U43" t="s">
-        <v>137</v>
-      </c>
-      <c r="V43" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -5521,67 +5521,67 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -5590,67 +5590,67 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" t="s">
         <v>422</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>423</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>424</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>425</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>426</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>427</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>428</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>429</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>430</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>431</v>
       </c>
-      <c r="L45" t="s">
-        <v>432</v>
-      </c>
       <c r="M45" t="s">
+        <v>532</v>
+      </c>
+      <c r="N45" t="s">
         <v>533</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>534</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>535</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>536</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>537</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>538</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>539</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>540</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>541</v>
-      </c>
-      <c r="V45" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5659,67 +5659,67 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" t="s">
         <v>433</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>434</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>435</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>436</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>437</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>438</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>439</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>440</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>441</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>442</v>
       </c>
-      <c r="L46" t="s">
-        <v>443</v>
-      </c>
       <c r="M46" t="s">
+        <v>542</v>
+      </c>
+      <c r="N46" t="s">
         <v>543</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>544</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>545</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>546</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>547</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>548</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>549</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>550</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>551</v>
-      </c>
-      <c r="V46" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5728,67 +5728,67 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>443</v>
+      </c>
+      <c r="C47" t="s">
         <v>444</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>445</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>446</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>447</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>283</v>
+      </c>
+      <c r="H47" t="s">
         <v>448</v>
       </c>
-      <c r="G47" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" t="s">
+        <v>214</v>
+      </c>
+      <c r="K47" t="s">
         <v>449</v>
       </c>
-      <c r="I47" t="s">
-        <v>288</v>
-      </c>
-      <c r="J47" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>450</v>
       </c>
-      <c r="L47" t="s">
-        <v>451</v>
-      </c>
       <c r="M47" t="s">
+        <v>552</v>
+      </c>
+      <c r="N47" t="s">
         <v>553</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>554</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>555</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>556</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>557</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>558</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>559</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>560</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>561</v>
-      </c>
-      <c r="V47" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -5797,67 +5797,67 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s">
         <v>452</v>
       </c>
-      <c r="C48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>453</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>454</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>455</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>456</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s">
         <v>457</v>
       </c>
-      <c r="I48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>458</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>459</v>
       </c>
-      <c r="L48" t="s">
-        <v>460</v>
-      </c>
       <c r="M48" t="s">
+        <v>562</v>
+      </c>
+      <c r="N48" t="s">
+        <v>70</v>
+      </c>
+      <c r="O48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>455</v>
+      </c>
+      <c r="R48" t="s">
         <v>563</v>
       </c>
-      <c r="N48" t="s">
-        <v>71</v>
-      </c>
-      <c r="O48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>456</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>564</v>
       </c>
-      <c r="S48" t="s">
-        <v>565</v>
-      </c>
       <c r="T48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5866,67 +5866,67 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="S49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5935,67 +5935,67 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>461</v>
+      </c>
+      <c r="C50" t="s">
         <v>462</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>463</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>464</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>465</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>466</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>467</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>468</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>469</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>470</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>471</v>
       </c>
-      <c r="L50" t="s">
-        <v>472</v>
-      </c>
       <c r="M50" t="s">
+        <v>566</v>
+      </c>
+      <c r="N50" t="s">
         <v>567</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>568</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>569</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>570</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>571</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>572</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>573</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>574</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>575</v>
-      </c>
-      <c r="V50" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -6004,67 +6004,67 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="U51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="V51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -6073,7 +6073,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -6082,67 +6082,67 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>474</v>
+      </c>
+      <c r="C53" t="s">
         <v>475</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>476</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>475</v>
+      </c>
+      <c r="F53" t="s">
+        <v>475</v>
+      </c>
+      <c r="G53" t="s">
         <v>477</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
+        <v>475</v>
+      </c>
+      <c r="I53" t="s">
+        <v>475</v>
+      </c>
+      <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>475</v>
+      </c>
+      <c r="M53" t="s">
+        <v>475</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>475</v>
+      </c>
+      <c r="P53" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>475</v>
+      </c>
+      <c r="R53" t="s">
+        <v>477</v>
+      </c>
+      <c r="S53" t="s">
+        <v>477</v>
+      </c>
+      <c r="T53" t="s">
+        <v>475</v>
+      </c>
+      <c r="U53" t="s">
         <v>476</v>
       </c>
-      <c r="F53" t="s">
-        <v>476</v>
-      </c>
-      <c r="G53" t="s">
-        <v>478</v>
-      </c>
-      <c r="H53" t="s">
-        <v>476</v>
-      </c>
-      <c r="I53" t="s">
-        <v>476</v>
-      </c>
-      <c r="J53" t="s">
-        <v>478</v>
-      </c>
-      <c r="K53" t="s">
-        <v>476</v>
-      </c>
-      <c r="L53" t="s">
-        <v>476</v>
-      </c>
-      <c r="M53" t="s">
-        <v>476</v>
-      </c>
-      <c r="N53" t="s">
-        <v>476</v>
-      </c>
-      <c r="O53" t="s">
-        <v>476</v>
-      </c>
-      <c r="P53" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>476</v>
-      </c>
-      <c r="R53" t="s">
-        <v>478</v>
-      </c>
-      <c r="S53" t="s">
-        <v>478</v>
-      </c>
-      <c r="T53" t="s">
-        <v>476</v>
-      </c>
-      <c r="U53" t="s">
-        <v>477</v>
-      </c>
       <c r="V53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -6151,67 +6151,67 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>478</v>
+      </c>
+      <c r="C54" t="s">
         <v>479</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54" t="s">
         <v>480</v>
       </c>
-      <c r="D54" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>481</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>482</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
         <v>483</v>
       </c>
-      <c r="H54" t="s">
-        <v>176</v>
-      </c>
-      <c r="I54" t="s">
-        <v>371</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>484</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>485</v>
       </c>
-      <c r="L54" t="s">
-        <v>486</v>
-      </c>
       <c r="M54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O54" t="s">
+        <v>577</v>
+      </c>
+      <c r="P54" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q54" t="s">
         <v>578</v>
       </c>
-      <c r="P54" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>579</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>580</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>581</v>
       </c>
-      <c r="T54" t="s">
-        <v>582</v>
-      </c>
       <c r="U54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -6220,67 +6220,67 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" t="s">
         <v>487</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" t="s">
         <v>488</v>
       </c>
-      <c r="D55" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s">
+        <v>487</v>
+      </c>
+      <c r="H55" t="s">
         <v>489</v>
       </c>
-      <c r="F55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" t="s">
-        <v>488</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>490</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>491</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
+        <v>489</v>
+      </c>
+      <c r="L55" t="s">
         <v>492</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>490</v>
       </c>
-      <c r="L55" t="s">
-        <v>493</v>
-      </c>
-      <c r="M55" t="s">
-        <v>491</v>
-      </c>
       <c r="N55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O55" t="s">
+        <v>582</v>
+      </c>
+      <c r="P55" t="s">
         <v>583</v>
       </c>
-      <c r="P55" t="s">
-        <v>584</v>
-      </c>
       <c r="Q55" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -6289,37 +6289,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -6328,67 +6328,67 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>474</v>
+      </c>
+      <c r="C57" t="s">
         <v>475</v>
       </c>
-      <c r="C57" t="s">
-        <v>476</v>
-      </c>
       <c r="D57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="U57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -6397,67 +6397,67 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C58" t="s">
+        <v>495</v>
+      </c>
+      <c r="D58" t="s">
         <v>496</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>497</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>498</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>499</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>500</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>501</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>502</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>503</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>504</v>
       </c>
-      <c r="L58" t="s">
-        <v>505</v>
-      </c>
       <c r="M58" t="s">
+        <v>584</v>
+      </c>
+      <c r="N58" t="s">
         <v>585</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>586</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>587</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>588</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>589</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>590</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>591</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>592</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>593</v>
-      </c>
-      <c r="V58" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -6466,67 +6466,67 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" t="s">
+        <v>505</v>
+      </c>
+      <c r="D59" t="s">
         <v>506</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>507</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>508</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>509</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>510</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>511</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>512</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>513</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>514</v>
       </c>
-      <c r="L59" t="s">
-        <v>515</v>
-      </c>
       <c r="M59" t="s">
+        <v>594</v>
+      </c>
+      <c r="N59" t="s">
         <v>595</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>596</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>597</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>598</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>599</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>600</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>601</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>602</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>603</v>
-      </c>
-      <c r="V59" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -6535,37 +6535,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L60" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -6574,67 +6574,67 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>605</v>
+      </c>
+      <c r="C61" t="s">
         <v>606</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>607</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>608</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>609</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>610</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>611</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>612</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>613</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>614</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>615</v>
       </c>
-      <c r="L61" t="s">
-        <v>616</v>
-      </c>
       <c r="M61" t="s">
+        <v>728</v>
+      </c>
+      <c r="N61" t="s">
         <v>729</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>730</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>731</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>732</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>733</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>734</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>735</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>736</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>737</v>
-      </c>
-      <c r="V61" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -6643,67 +6643,67 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>616</v>
+      </c>
+      <c r="C62" t="s">
         <v>617</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>618</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>619</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" t="s">
         <v>620</v>
       </c>
-      <c r="F62" t="s">
-        <v>357</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>621</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>622</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>623</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>624</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>625</v>
       </c>
-      <c r="L62" t="s">
-        <v>626</v>
-      </c>
       <c r="M62" t="s">
+        <v>738</v>
+      </c>
+      <c r="N62" t="s">
         <v>739</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>740</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>741</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>742</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>743</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>744</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>745</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>746</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>747</v>
-      </c>
-      <c r="V62" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6712,67 +6712,67 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>626</v>
+      </c>
+      <c r="C63" t="s">
         <v>627</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>628</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>629</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>630</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>631</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>632</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>633</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>634</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>635</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>636</v>
       </c>
-      <c r="L63" t="s">
-        <v>637</v>
-      </c>
       <c r="M63" t="s">
+        <v>748</v>
+      </c>
+      <c r="N63" t="s">
         <v>749</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>750</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>751</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>752</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>753</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>754</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>755</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>756</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>757</v>
-      </c>
-      <c r="V63" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6781,64 +6781,64 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -6847,67 +6847,67 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>638</v>
+      </c>
+      <c r="C65" t="s">
         <v>639</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>640</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>641</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>642</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
+        <v>642</v>
+      </c>
+      <c r="H65" t="s">
         <v>643</v>
       </c>
-      <c r="G65" t="s">
-        <v>643</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>644</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>645</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>646</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>647</v>
       </c>
-      <c r="L65" t="s">
-        <v>648</v>
-      </c>
       <c r="M65" t="s">
+        <v>758</v>
+      </c>
+      <c r="N65" t="s">
+        <v>475</v>
+      </c>
+      <c r="O65" t="s">
         <v>759</v>
       </c>
-      <c r="N65" t="s">
-        <v>476</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>760</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>761</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
+        <v>749</v>
+      </c>
+      <c r="S65" t="s">
         <v>762</v>
       </c>
-      <c r="R65" t="s">
-        <v>750</v>
-      </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
+        <v>761</v>
+      </c>
+      <c r="U65" t="s">
         <v>763</v>
       </c>
-      <c r="T65" t="s">
-        <v>762</v>
-      </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>764</v>
-      </c>
-      <c r="V65" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6916,64 +6916,64 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>648</v>
+      </c>
+      <c r="C66" t="s">
         <v>649</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>650</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>651</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>652</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>652</v>
+      </c>
+      <c r="H66" t="s">
         <v>653</v>
       </c>
-      <c r="G66" t="s">
-        <v>653</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>654</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>655</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>656</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>657</v>
       </c>
-      <c r="L66" t="s">
-        <v>658</v>
-      </c>
       <c r="M66" t="s">
+        <v>765</v>
+      </c>
+      <c r="O66" t="s">
         <v>766</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>767</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>768</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
+        <v>475</v>
+      </c>
+      <c r="S66" t="s">
+        <v>475</v>
+      </c>
+      <c r="T66" t="s">
         <v>769</v>
       </c>
-      <c r="R66" t="s">
-        <v>476</v>
-      </c>
-      <c r="S66" t="s">
-        <v>476</v>
-      </c>
-      <c r="T66" t="s">
-        <v>770</v>
-      </c>
       <c r="U66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -6982,67 +6982,67 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C67" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E67" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G67" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J67" t="s">
+        <v>656</v>
+      </c>
+      <c r="K67" t="s">
         <v>657</v>
       </c>
-      <c r="K67" t="s">
-        <v>658</v>
-      </c>
       <c r="L67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q67" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T67" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -7057,37 +7057,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -7096,67 +7096,67 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>660</v>
+      </c>
+      <c r="C70" t="s">
         <v>661</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>662</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>663</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>664</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>665</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>666</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>667</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>668</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>669</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>670</v>
       </c>
-      <c r="L70" t="s">
-        <v>671</v>
-      </c>
       <c r="M70" t="s">
+        <v>771</v>
+      </c>
+      <c r="N70" t="s">
         <v>772</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>773</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>774</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>775</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>776</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>777</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>778</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>779</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>780</v>
-      </c>
-      <c r="V70" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -7165,67 +7165,67 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>671</v>
+      </c>
+      <c r="C71" t="s">
         <v>672</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>673</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>674</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>675</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>676</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>677</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>678</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>679</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>680</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>681</v>
       </c>
-      <c r="L71" t="s">
-        <v>682</v>
-      </c>
       <c r="M71" t="s">
+        <v>781</v>
+      </c>
+      <c r="N71" t="s">
         <v>782</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>783</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>784</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>695</v>
+      </c>
+      <c r="R71" t="s">
         <v>785</v>
       </c>
-      <c r="Q71" t="s">
-        <v>696</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>786</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>787</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>788</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>789</v>
-      </c>
-      <c r="V71" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -7234,67 +7234,67 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>682</v>
+      </c>
+      <c r="C72" t="s">
         <v>683</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>684</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>685</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>494</v>
+      </c>
+      <c r="G72" t="s">
         <v>686</v>
       </c>
-      <c r="F72" t="s">
-        <v>495</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>687</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>688</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>689</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>690</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>691</v>
       </c>
-      <c r="L72" t="s">
-        <v>692</v>
-      </c>
       <c r="M72" t="s">
+        <v>790</v>
+      </c>
+      <c r="N72" t="s">
         <v>791</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>792</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>793</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>794</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>795</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>796</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>797</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>798</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>799</v>
-      </c>
-      <c r="V72" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -7303,67 +7303,67 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>692</v>
+      </c>
+      <c r="C73" t="s">
         <v>693</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>694</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>695</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>696</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>697</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>698</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>699</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>700</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>701</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>702</v>
       </c>
-      <c r="L73" t="s">
-        <v>703</v>
-      </c>
       <c r="M73" t="s">
+        <v>800</v>
+      </c>
+      <c r="N73" t="s">
         <v>801</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>802</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>803</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>804</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>805</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>806</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
+        <v>249</v>
+      </c>
+      <c r="U73" t="s">
         <v>807</v>
       </c>
-      <c r="T73" t="s">
-        <v>250</v>
-      </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>808</v>
-      </c>
-      <c r="V73" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -7372,37 +7372,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7411,67 +7411,67 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>704</v>
+      </c>
+      <c r="C75" t="s">
         <v>705</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>706</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>707</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>708</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>709</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>710</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>711</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>712</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>713</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>714</v>
       </c>
-      <c r="L75" t="s">
-        <v>715</v>
-      </c>
       <c r="M75" t="s">
+        <v>809</v>
+      </c>
+      <c r="N75" t="s">
         <v>810</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>811</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>812</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>813</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>814</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>815</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>816</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>817</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>818</v>
-      </c>
-      <c r="V75" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7480,67 +7480,67 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>715</v>
+      </c>
+      <c r="C76" t="s">
         <v>716</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" t="s">
+        <v>394</v>
+      </c>
+      <c r="F76" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" t="s">
         <v>717</v>
       </c>
-      <c r="D76" t="s">
-        <v>378</v>
-      </c>
-      <c r="E76" t="s">
-        <v>395</v>
-      </c>
-      <c r="F76" t="s">
-        <v>259</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" t="s">
+        <v>199</v>
+      </c>
+      <c r="K76" t="s">
         <v>718</v>
       </c>
-      <c r="H76" t="s">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s">
-        <v>199</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="L76" t="s">
         <v>200</v>
       </c>
-      <c r="K76" t="s">
-        <v>719</v>
-      </c>
-      <c r="L76" t="s">
-        <v>201</v>
-      </c>
       <c r="M76" t="s">
+        <v>819</v>
+      </c>
+      <c r="N76" t="s">
         <v>820</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>821</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>822</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
+        <v>43</v>
+      </c>
+      <c r="R76" t="s">
         <v>823</v>
       </c>
-      <c r="Q76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
+        <v>328</v>
+      </c>
+      <c r="T76" t="s">
         <v>824</v>
       </c>
-      <c r="S76" t="s">
-        <v>329</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
+        <v>394</v>
+      </c>
+      <c r="V76" t="s">
         <v>825</v>
-      </c>
-      <c r="U76" t="s">
-        <v>395</v>
-      </c>
-      <c r="V76" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7549,34 +7549,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -7585,67 +7585,67 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>720</v>
+      </c>
+      <c r="C78" t="s">
+        <v>405</v>
+      </c>
+      <c r="D78" t="s">
+        <v>718</v>
+      </c>
+      <c r="E78" t="s">
+        <v>305</v>
+      </c>
+      <c r="F78" t="s">
         <v>721</v>
       </c>
-      <c r="C78" t="s">
-        <v>406</v>
-      </c>
-      <c r="D78" t="s">
-        <v>719</v>
-      </c>
-      <c r="E78" t="s">
-        <v>306</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
+        <v>516</v>
+      </c>
+      <c r="H78" t="s">
         <v>722</v>
       </c>
-      <c r="G78" t="s">
-        <v>517</v>
-      </c>
-      <c r="H78" t="s">
-        <v>723</v>
-      </c>
       <c r="I78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M78" t="s">
+        <v>826</v>
+      </c>
+      <c r="N78" t="s">
+        <v>522</v>
+      </c>
+      <c r="O78" t="s">
+        <v>725</v>
+      </c>
+      <c r="P78" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>494</v>
+      </c>
+      <c r="R78" t="s">
+        <v>824</v>
+      </c>
+      <c r="S78" t="s">
         <v>827</v>
       </c>
-      <c r="N78" t="s">
-        <v>523</v>
-      </c>
-      <c r="O78" t="s">
-        <v>726</v>
-      </c>
-      <c r="P78" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>495</v>
-      </c>
-      <c r="R78" t="s">
-        <v>825</v>
-      </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>828</v>
       </c>
-      <c r="T78" t="s">
-        <v>829</v>
-      </c>
       <c r="U78" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -7654,67 +7654,67 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>723</v>
+      </c>
+      <c r="C79" t="s">
         <v>724</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E79" t="s">
         <v>725</v>
       </c>
-      <c r="D79" t="s">
-        <v>396</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" t="s">
         <v>726</v>
       </c>
-      <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" t="s">
+        <v>406</v>
+      </c>
+      <c r="J79" t="s">
+        <v>475</v>
+      </c>
+      <c r="K79" t="s">
+        <v>395</v>
+      </c>
+      <c r="L79" t="s">
         <v>727</v>
       </c>
-      <c r="H79" t="s">
-        <v>406</v>
-      </c>
-      <c r="I79" t="s">
-        <v>407</v>
-      </c>
-      <c r="J79" t="s">
-        <v>476</v>
-      </c>
-      <c r="K79" t="s">
-        <v>396</v>
-      </c>
-      <c r="L79" t="s">
-        <v>728</v>
-      </c>
       <c r="M79" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O79" t="s">
+        <v>829</v>
+      </c>
+      <c r="P79" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>309</v>
+      </c>
+      <c r="R79" t="s">
         <v>830</v>
       </c>
-      <c r="P79" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>310</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
+        <v>453</v>
+      </c>
+      <c r="T79" t="s">
+        <v>305</v>
+      </c>
+      <c r="U79" t="s">
+        <v>305</v>
+      </c>
+      <c r="V79" t="s">
         <v>831</v>
-      </c>
-      <c r="S79" t="s">
-        <v>454</v>
-      </c>
-      <c r="T79" t="s">
-        <v>306</v>
-      </c>
-      <c r="U79" t="s">
-        <v>306</v>
-      </c>
-      <c r="V79" t="s">
-        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/cities13-14/1/d12.xlsx
+++ b/migforecasting/cities13-14/1/d12.xlsx
@@ -755,10 +755,6 @@
     <t>Одинцово</t>
   </si>
   <si>
-    <t>Орехово-
-Зуево</t>
-  </si>
-  <si>
     <t>Подольск</t>
   </si>
   <si>
@@ -779,10 +775,6 @@
   </si>
   <si>
     <t>Щелково</t>
-  </si>
-  <si>
-    <t>Электро-
-сталь</t>
   </si>
   <si>
     <t>141,4</t>
@@ -2590,6 +2582,12 @@
   </si>
   <si>
     <t>Домодедово</t>
+  </si>
+  <si>
+    <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +2956,7 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3036,31 +3034,31 @@
         <v>236</v>
       </c>
       <c r="N2" t="s">
+        <v>832</v>
+      </c>
+      <c r="O2" t="s">
         <v>237</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>238</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>240</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>241</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>242</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>243</v>
       </c>
-      <c r="U2" t="s">
-        <v>244</v>
-      </c>
       <c r="V2" t="s">
-        <v>245</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3204,34 +3202,34 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" t="s">
         <v>246</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>247</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>248</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>249</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>250</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>251</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>252</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>253</v>
-      </c>
-      <c r="U5" t="s">
-        <v>254</v>
-      </c>
-      <c r="V5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3334,34 +3332,34 @@
         <v>33</v>
       </c>
       <c r="M7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7" t="s">
         <v>256</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>257</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>258</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>259</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>260</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>261</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>262</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>263</v>
-      </c>
-      <c r="U7" t="s">
-        <v>264</v>
-      </c>
-      <c r="V7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3402,25 +3400,25 @@
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O8" t="s">
         <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R8" t="s">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -3429,7 +3427,7 @@
         <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3470,34 +3468,34 @@
         <v>55</v>
       </c>
       <c r="M9" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" t="s">
         <v>272</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>273</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>274</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>275</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>276</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>277</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>278</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>279</v>
-      </c>
-      <c r="U9" t="s">
-        <v>280</v>
-      </c>
-      <c r="V9" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3541,31 +3539,31 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" t="s">
         <v>282</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>283</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>284</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>285</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>286</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>287</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>288</v>
-      </c>
-      <c r="U10" t="s">
-        <v>289</v>
-      </c>
-      <c r="V10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3606,28 +3604,28 @@
         <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R11" t="s">
         <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="U11" t="s">
         <v>77</v>
@@ -3674,25 +3672,25 @@
         <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q12" t="s">
+        <v>296</v>
+      </c>
+      <c r="R12" t="s">
+        <v>297</v>
+      </c>
+      <c r="S12" t="s">
         <v>298</v>
-      </c>
-      <c r="R12" t="s">
-        <v>299</v>
-      </c>
-      <c r="S12" t="s">
-        <v>300</v>
       </c>
       <c r="T12" t="s">
         <v>186</v>
@@ -3742,34 +3740,34 @@
         <v>96</v>
       </c>
       <c r="M13" t="s">
+        <v>299</v>
+      </c>
+      <c r="N13" t="s">
+        <v>300</v>
+      </c>
+      <c r="O13" t="s">
         <v>301</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>302</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>303</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>304</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>305</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>306</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>307</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>308</v>
-      </c>
-      <c r="U13" t="s">
-        <v>309</v>
-      </c>
-      <c r="V13" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3810,34 +3808,34 @@
         <v>107</v>
       </c>
       <c r="M14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N14" t="s">
+        <v>310</v>
+      </c>
+      <c r="O14" t="s">
         <v>311</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>312</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>313</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>314</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>315</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>316</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>317</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>318</v>
-      </c>
-      <c r="U14" t="s">
-        <v>319</v>
-      </c>
-      <c r="V14" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3916,34 +3914,34 @@
         <v>117</v>
       </c>
       <c r="M16" t="s">
+        <v>319</v>
+      </c>
+      <c r="N16" t="s">
+        <v>320</v>
+      </c>
+      <c r="O16" t="s">
         <v>321</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>322</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>323</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>324</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
+        <v>320</v>
+      </c>
+      <c r="T16" t="s">
         <v>325</v>
-      </c>
-      <c r="R16" t="s">
-        <v>326</v>
-      </c>
-      <c r="S16" t="s">
-        <v>322</v>
-      </c>
-      <c r="T16" t="s">
-        <v>327</v>
       </c>
       <c r="U16" t="s">
         <v>165</v>
       </c>
       <c r="V16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3987,10 +3985,10 @@
         <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3999,7 +3997,7 @@
         <v>126</v>
       </c>
       <c r="R17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S17" t="s">
         <v>126</v>
@@ -4011,7 +4009,7 @@
         <v>126</v>
       </c>
       <c r="V17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -4055,10 +4053,10 @@
         <v>270</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P18" s="2">
         <v>140</v>
@@ -4067,19 +4065,19 @@
         <v>135</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S18" s="2">
         <v>220</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="U18" s="2">
         <v>200</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -4120,34 +4118,34 @@
         <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="U19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -4188,34 +4186,34 @@
         <v>149</v>
       </c>
       <c r="M20" t="s">
+        <v>337</v>
+      </c>
+      <c r="N20" t="s">
+        <v>338</v>
+      </c>
+      <c r="O20" t="s">
         <v>339</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>340</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>341</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>342</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>343</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>344</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>345</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>346</v>
-      </c>
-      <c r="U20" t="s">
-        <v>347</v>
-      </c>
-      <c r="V20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -4259,7 +4257,7 @@
         <v>126</v>
       </c>
       <c r="N21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O21" t="s">
         <v>126</v>
@@ -4271,7 +4269,7 @@
         <v>126</v>
       </c>
       <c r="R21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S21" t="s">
         <v>126</v>
@@ -4283,7 +4281,7 @@
         <v>126</v>
       </c>
       <c r="V21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -4327,31 +4325,31 @@
         <v>136</v>
       </c>
       <c r="N22" t="s">
+        <v>350</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
+        <v>351</v>
+      </c>
+      <c r="S22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" t="s">
+        <v>136</v>
+      </c>
+      <c r="V22" t="s">
         <v>352</v>
-      </c>
-      <c r="O22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>136</v>
-      </c>
-      <c r="R22" t="s">
-        <v>353</v>
-      </c>
-      <c r="S22" t="s">
-        <v>136</v>
-      </c>
-      <c r="T22" t="s">
-        <v>136</v>
-      </c>
-      <c r="U22" t="s">
-        <v>136</v>
-      </c>
-      <c r="V22" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -4392,34 +4390,34 @@
         <v>173</v>
       </c>
       <c r="M23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" t="s">
+        <v>354</v>
+      </c>
+      <c r="O23" t="s">
         <v>355</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>356</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>357</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>358</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>359</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>360</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>361</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>362</v>
-      </c>
-      <c r="U23" t="s">
-        <v>363</v>
-      </c>
-      <c r="V23" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -4460,16 +4458,16 @@
         <v>183</v>
       </c>
       <c r="M24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N24" t="s">
         <v>176</v>
       </c>
       <c r="O24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q24" t="s">
         <v>178</v>
@@ -4481,13 +4479,13 @@
         <v>179</v>
       </c>
       <c r="T24" t="s">
+        <v>366</v>
+      </c>
+      <c r="U24" t="s">
+        <v>367</v>
+      </c>
+      <c r="V24" t="s">
         <v>368</v>
-      </c>
-      <c r="U24" t="s">
-        <v>369</v>
-      </c>
-      <c r="V24" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4560,7 +4558,7 @@
         <v>191</v>
       </c>
       <c r="M26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N26" t="s">
         <v>196</v>
@@ -4569,7 +4567,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q26" t="s">
         <v>187</v>
@@ -4578,13 +4576,13 @@
         <v>201</v>
       </c>
       <c r="S26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T26" t="s">
         <v>71</v>
       </c>
       <c r="U26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V26" t="s">
         <v>38</v>
@@ -4628,22 +4626,22 @@
         <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O27" t="s">
         <v>71</v>
       </c>
       <c r="P27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S27" t="s">
         <v>88</v>
@@ -4707,10 +4705,10 @@
         <v>126</v>
       </c>
       <c r="N29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P29" t="s">
         <v>126</v>
@@ -4725,13 +4723,13 @@
         <v>126</v>
       </c>
       <c r="T29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="U29" t="s">
         <v>126</v>
       </c>
       <c r="V29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4775,31 +4773,31 @@
         <v>136</v>
       </c>
       <c r="N30" t="s">
+        <v>380</v>
+      </c>
+      <c r="O30" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" t="s">
+        <v>261</v>
+      </c>
+      <c r="U30" t="s">
+        <v>136</v>
+      </c>
+      <c r="V30" t="s">
         <v>382</v>
-      </c>
-      <c r="O30" t="s">
-        <v>383</v>
-      </c>
-      <c r="P30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>136</v>
-      </c>
-      <c r="R30" t="s">
-        <v>136</v>
-      </c>
-      <c r="S30" t="s">
-        <v>136</v>
-      </c>
-      <c r="T30" t="s">
-        <v>263</v>
-      </c>
-      <c r="U30" t="s">
-        <v>136</v>
-      </c>
-      <c r="V30" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4851,10 +4849,10 @@
         <v>126</v>
       </c>
       <c r="N32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P32" t="s">
         <v>126</v>
@@ -4869,13 +4867,13 @@
         <v>126</v>
       </c>
       <c r="T32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U32" t="s">
         <v>126</v>
       </c>
       <c r="V32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4919,10 +4917,10 @@
         <v>136</v>
       </c>
       <c r="N33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P33" t="s">
         <v>136</v>
@@ -4943,7 +4941,7 @@
         <v>136</v>
       </c>
       <c r="V33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -5020,7 +5018,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -5029,25 +5027,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C36" t="s">
+        <v>392</v>
+      </c>
+      <c r="D36" t="s">
         <v>393</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>394</v>
       </c>
-      <c r="D36" t="s">
-        <v>395</v>
-      </c>
-      <c r="E36" t="s">
-        <v>396</v>
-      </c>
       <c r="F36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G36" t="s">
         <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I36" t="s">
         <v>126</v>
@@ -5065,10 +5063,10 @@
         <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P36" t="s">
         <v>126</v>
@@ -5083,13 +5081,13 @@
         <v>126</v>
       </c>
       <c r="T36" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="U36" t="s">
         <v>126</v>
       </c>
       <c r="V36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -5101,23 +5099,23 @@
         <v>213</v>
       </c>
       <c r="C37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E37" t="s">
         <v>397</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>398</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
         <v>399</v>
       </c>
-      <c r="F37" t="s">
-        <v>400</v>
-      </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
-        <v>401</v>
-      </c>
       <c r="I37" t="s">
         <v>136</v>
       </c>
@@ -5134,31 +5132,31 @@
         <v>136</v>
       </c>
       <c r="N37" t="s">
+        <v>516</v>
+      </c>
+      <c r="O37" t="s">
+        <v>517</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" t="s">
+        <v>136</v>
+      </c>
+      <c r="S37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T37" t="s">
         <v>518</v>
       </c>
-      <c r="O37" t="s">
+      <c r="U37" t="s">
+        <v>136</v>
+      </c>
+      <c r="V37" t="s">
         <v>519</v>
-      </c>
-      <c r="P37" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" t="s">
-        <v>136</v>
-      </c>
-      <c r="S37" t="s">
-        <v>136</v>
-      </c>
-      <c r="T37" t="s">
-        <v>520</v>
-      </c>
-      <c r="U37" t="s">
-        <v>136</v>
-      </c>
-      <c r="V37" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -5167,7 +5165,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
@@ -5236,7 +5234,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -5245,16 +5243,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C40" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" t="s">
         <v>404</v>
-      </c>
-      <c r="D40" t="s">
-        <v>405</v>
-      </c>
-      <c r="E40" t="s">
-        <v>406</v>
       </c>
       <c r="F40" t="s">
         <v>94</v>
@@ -5263,7 +5261,7 @@
         <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I40" t="s">
         <v>126</v>
@@ -5281,10 +5279,10 @@
         <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O40" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P40" t="s">
         <v>136</v>
@@ -5317,23 +5315,23 @@
         <v>213</v>
       </c>
       <c r="C41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D41" t="s">
+        <v>406</v>
+      </c>
+      <c r="E41" t="s">
         <v>407</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>408</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s">
         <v>409</v>
       </c>
-      <c r="F41" t="s">
-        <v>410</v>
-      </c>
-      <c r="G41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" t="s">
-        <v>411</v>
-      </c>
       <c r="I41" t="s">
         <v>136</v>
       </c>
@@ -5350,31 +5348,31 @@
         <v>136</v>
       </c>
       <c r="N41" t="s">
+        <v>521</v>
+      </c>
+      <c r="O41" t="s">
+        <v>522</v>
+      </c>
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" t="s">
+        <v>136</v>
+      </c>
+      <c r="S41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T41" t="s">
         <v>523</v>
       </c>
-      <c r="O41" t="s">
+      <c r="U41" t="s">
+        <v>136</v>
+      </c>
+      <c r="V41" t="s">
         <v>524</v>
-      </c>
-      <c r="P41" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" t="s">
-        <v>136</v>
-      </c>
-      <c r="S41" t="s">
-        <v>136</v>
-      </c>
-      <c r="T41" t="s">
-        <v>525</v>
-      </c>
-      <c r="U41" t="s">
-        <v>136</v>
-      </c>
-      <c r="V41" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -5383,7 +5381,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
@@ -5392,16 +5390,16 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G42" t="s">
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I42" t="s">
         <v>126</v>
@@ -5437,13 +5435,13 @@
         <v>126</v>
       </c>
       <c r="T42" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="U42" t="s">
         <v>126</v>
       </c>
       <c r="V42" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -5452,26 +5450,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>415</v>
+      </c>
+      <c r="F43" t="s">
         <v>416</v>
       </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
         <v>417</v>
       </c>
-      <c r="F43" t="s">
-        <v>418</v>
-      </c>
-      <c r="G43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" t="s">
-        <v>419</v>
-      </c>
       <c r="I43" t="s">
         <v>136</v>
       </c>
@@ -5506,13 +5504,13 @@
         <v>136</v>
       </c>
       <c r="T43" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="U43" t="s">
         <v>136</v>
       </c>
       <c r="V43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -5521,67 +5519,67 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="R44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -5590,67 +5588,67 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>419</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
+      <c r="D45" t="s">
         <v>421</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>422</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>423</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>424</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>425</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>426</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>427</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>428</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>429</v>
       </c>
-      <c r="K45" t="s">
-        <v>430</v>
-      </c>
-      <c r="L45" t="s">
-        <v>431</v>
-      </c>
       <c r="M45" t="s">
+        <v>530</v>
+      </c>
+      <c r="N45" t="s">
+        <v>531</v>
+      </c>
+      <c r="O45" t="s">
         <v>532</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>533</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>534</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>535</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>536</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>537</v>
       </c>
-      <c r="S45" t="s">
+      <c r="U45" t="s">
         <v>538</v>
       </c>
-      <c r="T45" t="s">
+      <c r="V45" t="s">
         <v>539</v>
-      </c>
-      <c r="U45" t="s">
-        <v>540</v>
-      </c>
-      <c r="V45" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5659,67 +5657,67 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D46" t="s">
         <v>432</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>433</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>434</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>435</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>436</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>437</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>438</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>439</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>440</v>
       </c>
-      <c r="K46" t="s">
-        <v>441</v>
-      </c>
-      <c r="L46" t="s">
-        <v>442</v>
-      </c>
       <c r="M46" t="s">
+        <v>540</v>
+      </c>
+      <c r="N46" t="s">
+        <v>541</v>
+      </c>
+      <c r="O46" t="s">
         <v>542</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>543</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>544</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>545</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>546</v>
       </c>
-      <c r="R46" t="s">
+      <c r="T46" t="s">
         <v>547</v>
       </c>
-      <c r="S46" t="s">
+      <c r="U46" t="s">
         <v>548</v>
       </c>
-      <c r="T46" t="s">
+      <c r="V46" t="s">
         <v>549</v>
-      </c>
-      <c r="U46" t="s">
-        <v>550</v>
-      </c>
-      <c r="V46" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5728,67 +5726,67 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D47" t="s">
         <v>443</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>444</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>445</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H47" t="s">
         <v>446</v>
       </c>
-      <c r="F47" t="s">
-        <v>447</v>
-      </c>
-      <c r="G47" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" t="s">
-        <v>448</v>
-      </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J47" t="s">
         <v>214</v>
       </c>
       <c r="K47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M47" t="s">
+        <v>550</v>
+      </c>
+      <c r="N47" t="s">
+        <v>551</v>
+      </c>
+      <c r="O47" t="s">
         <v>552</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>553</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>554</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>555</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>556</v>
       </c>
-      <c r="R47" t="s">
+      <c r="T47" t="s">
         <v>557</v>
       </c>
-      <c r="S47" t="s">
+      <c r="U47" t="s">
         <v>558</v>
       </c>
-      <c r="T47" t="s">
+      <c r="V47" t="s">
         <v>559</v>
-      </c>
-      <c r="U47" t="s">
-        <v>560</v>
-      </c>
-      <c r="V47" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -5797,40 +5795,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C48" t="s">
         <v>188</v>
       </c>
       <c r="D48" t="s">
+        <v>450</v>
+      </c>
+      <c r="E48" t="s">
+        <v>451</v>
+      </c>
+      <c r="F48" t="s">
         <v>452</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>453</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>454</v>
-      </c>
-      <c r="G48" t="s">
-        <v>455</v>
-      </c>
-      <c r="H48" t="s">
-        <v>456</v>
       </c>
       <c r="I48" t="s">
         <v>38</v>
       </c>
       <c r="J48" t="s">
+        <v>455</v>
+      </c>
+      <c r="K48" t="s">
+        <v>456</v>
+      </c>
+      <c r="L48" t="s">
         <v>457</v>
       </c>
-      <c r="K48" t="s">
-        <v>458</v>
-      </c>
-      <c r="L48" t="s">
-        <v>459</v>
-      </c>
       <c r="M48" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -5839,25 +5837,25 @@
         <v>36</v>
       </c>
       <c r="P48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R48" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S48" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="T48" t="s">
         <v>203</v>
       </c>
       <c r="U48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5866,67 +5864,67 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="R49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="S49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="T49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5935,67 +5933,67 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" t="s">
+        <v>460</v>
+      </c>
+      <c r="D50" t="s">
         <v>461</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>462</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>463</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>464</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>465</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>466</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>467</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>468</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>469</v>
       </c>
-      <c r="K50" t="s">
-        <v>470</v>
-      </c>
-      <c r="L50" t="s">
-        <v>471</v>
-      </c>
       <c r="M50" t="s">
+        <v>564</v>
+      </c>
+      <c r="N50" t="s">
+        <v>565</v>
+      </c>
+      <c r="O50" t="s">
         <v>566</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>567</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>568</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>569</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>570</v>
       </c>
-      <c r="R50" t="s">
+      <c r="T50" t="s">
         <v>571</v>
       </c>
-      <c r="S50" t="s">
+      <c r="U50" t="s">
         <v>572</v>
       </c>
-      <c r="T50" t="s">
+      <c r="V50" t="s">
         <v>573</v>
-      </c>
-      <c r="U50" t="s">
-        <v>574</v>
-      </c>
-      <c r="V50" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -6004,67 +6002,67 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="R51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="T51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V51" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -6073,7 +6071,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -6082,67 +6080,67 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>472</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" t="s">
         <v>474</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>473</v>
+      </c>
+      <c r="F53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G53" t="s">
         <v>475</v>
       </c>
-      <c r="D53" t="s">
-        <v>476</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
+        <v>473</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
         <v>475</v>
       </c>
-      <c r="F53" t="s">
+      <c r="K53" t="s">
+        <v>473</v>
+      </c>
+      <c r="L53" t="s">
+        <v>473</v>
+      </c>
+      <c r="M53" t="s">
+        <v>473</v>
+      </c>
+      <c r="N53" t="s">
+        <v>473</v>
+      </c>
+      <c r="O53" t="s">
+        <v>473</v>
+      </c>
+      <c r="P53" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>473</v>
+      </c>
+      <c r="R53" t="s">
         <v>475</v>
       </c>
-      <c r="G53" t="s">
-        <v>477</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="S53" t="s">
         <v>475</v>
       </c>
-      <c r="I53" t="s">
-        <v>475</v>
-      </c>
-      <c r="J53" t="s">
-        <v>477</v>
-      </c>
-      <c r="K53" t="s">
-        <v>475</v>
-      </c>
-      <c r="L53" t="s">
-        <v>475</v>
-      </c>
-      <c r="M53" t="s">
-        <v>475</v>
-      </c>
-      <c r="N53" t="s">
-        <v>475</v>
-      </c>
-      <c r="O53" t="s">
-        <v>475</v>
-      </c>
-      <c r="P53" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>475</v>
-      </c>
-      <c r="R53" t="s">
-        <v>477</v>
-      </c>
-      <c r="S53" t="s">
-        <v>477</v>
-      </c>
       <c r="T53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="V53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -6151,61 +6149,61 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
+      </c>
+      <c r="E54" t="s">
         <v>478</v>
       </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
         <v>479</v>
       </c>
-      <c r="D54" t="s">
-        <v>366</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>480</v>
-      </c>
-      <c r="F54" t="s">
-        <v>481</v>
-      </c>
-      <c r="G54" t="s">
-        <v>482</v>
       </c>
       <c r="H54" t="s">
         <v>175</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
+        <v>481</v>
+      </c>
+      <c r="K54" t="s">
+        <v>482</v>
+      </c>
+      <c r="L54" t="s">
         <v>483</v>
       </c>
-      <c r="K54" t="s">
-        <v>484</v>
-      </c>
-      <c r="L54" t="s">
-        <v>485</v>
-      </c>
       <c r="M54" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N54" t="s">
         <v>178</v>
       </c>
       <c r="O54" t="s">
+        <v>575</v>
+      </c>
+      <c r="P54" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>576</v>
+      </c>
+      <c r="R54" t="s">
         <v>577</v>
       </c>
-      <c r="P54" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="S54" t="s">
         <v>578</v>
       </c>
-      <c r="R54" t="s">
+      <c r="T54" t="s">
         <v>579</v>
-      </c>
-      <c r="S54" t="s">
-        <v>580</v>
-      </c>
-      <c r="T54" t="s">
-        <v>581</v>
       </c>
       <c r="U54" t="s">
         <v>183</v>
@@ -6220,67 +6218,67 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>484</v>
+      </c>
+      <c r="C55" t="s">
+        <v>485</v>
+      </c>
+      <c r="D55" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" t="s">
         <v>486</v>
-      </c>
-      <c r="C55" t="s">
-        <v>487</v>
-      </c>
-      <c r="D55" t="s">
-        <v>365</v>
-      </c>
-      <c r="E55" t="s">
-        <v>488</v>
       </c>
       <c r="F55" t="s">
         <v>44</v>
       </c>
       <c r="G55" t="s">
+        <v>485</v>
+      </c>
+      <c r="H55" t="s">
         <v>487</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
+        <v>488</v>
+      </c>
+      <c r="J55" t="s">
         <v>489</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
         <v>490</v>
       </c>
-      <c r="J55" t="s">
-        <v>491</v>
-      </c>
-      <c r="K55" t="s">
-        <v>489</v>
-      </c>
-      <c r="L55" t="s">
-        <v>492</v>
-      </c>
       <c r="M55" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N55" t="s">
         <v>44</v>
       </c>
       <c r="O55" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P55" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q55" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="R55" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S55" t="s">
         <v>44</v>
       </c>
       <c r="T55" t="s">
+        <v>485</v>
+      </c>
+      <c r="U55" t="s">
         <v>487</v>
       </c>
-      <c r="U55" t="s">
-        <v>489</v>
-      </c>
       <c r="V55" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -6289,7 +6287,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
@@ -6328,67 +6326,67 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="R57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="S57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="V57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -6397,67 +6395,67 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C58" t="s">
+        <v>493</v>
+      </c>
+      <c r="D58" t="s">
+        <v>494</v>
+      </c>
+      <c r="E58" t="s">
         <v>495</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>496</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>497</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>498</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>499</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>500</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>501</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>502</v>
       </c>
-      <c r="K58" t="s">
-        <v>503</v>
-      </c>
-      <c r="L58" t="s">
-        <v>504</v>
-      </c>
       <c r="M58" t="s">
+        <v>582</v>
+      </c>
+      <c r="N58" t="s">
+        <v>583</v>
+      </c>
+      <c r="O58" t="s">
         <v>584</v>
       </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
         <v>585</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Q58" t="s">
         <v>586</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>587</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>588</v>
       </c>
-      <c r="R58" t="s">
+      <c r="T58" t="s">
         <v>589</v>
       </c>
-      <c r="S58" t="s">
+      <c r="U58" t="s">
         <v>590</v>
       </c>
-      <c r="T58" t="s">
+      <c r="V58" t="s">
         <v>591</v>
-      </c>
-      <c r="U58" t="s">
-        <v>592</v>
-      </c>
-      <c r="V58" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -6466,67 +6464,67 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C59" t="s">
+        <v>503</v>
+      </c>
+      <c r="D59" t="s">
+        <v>504</v>
+      </c>
+      <c r="E59" t="s">
         <v>505</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>506</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>507</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>508</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>509</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>510</v>
       </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>511</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>512</v>
       </c>
-      <c r="K59" t="s">
-        <v>513</v>
-      </c>
-      <c r="L59" t="s">
-        <v>514</v>
-      </c>
       <c r="M59" t="s">
+        <v>592</v>
+      </c>
+      <c r="N59" t="s">
+        <v>593</v>
+      </c>
+      <c r="O59" t="s">
         <v>594</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>595</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
         <v>596</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>597</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>598</v>
       </c>
-      <c r="R59" t="s">
+      <c r="T59" t="s">
         <v>599</v>
       </c>
-      <c r="S59" t="s">
+      <c r="U59" t="s">
         <v>600</v>
       </c>
-      <c r="T59" t="s">
+      <c r="V59" t="s">
         <v>601</v>
-      </c>
-      <c r="U59" t="s">
-        <v>602</v>
-      </c>
-      <c r="V59" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -6535,37 +6533,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L60" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -6574,67 +6572,67 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>603</v>
+      </c>
+      <c r="C61" t="s">
+        <v>604</v>
+      </c>
+      <c r="D61" t="s">
         <v>605</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>606</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>607</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>608</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>609</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>610</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>611</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>612</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>613</v>
       </c>
-      <c r="K61" t="s">
-        <v>614</v>
-      </c>
-      <c r="L61" t="s">
-        <v>615</v>
-      </c>
       <c r="M61" t="s">
+        <v>726</v>
+      </c>
+      <c r="N61" t="s">
+        <v>727</v>
+      </c>
+      <c r="O61" t="s">
         <v>728</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>729</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>730</v>
       </c>
-      <c r="P61" t="s">
+      <c r="R61" t="s">
         <v>731</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>732</v>
       </c>
-      <c r="R61" t="s">
+      <c r="T61" t="s">
         <v>733</v>
       </c>
-      <c r="S61" t="s">
+      <c r="U61" t="s">
         <v>734</v>
       </c>
-      <c r="T61" t="s">
+      <c r="V61" t="s">
         <v>735</v>
-      </c>
-      <c r="U61" t="s">
-        <v>736</v>
-      </c>
-      <c r="V61" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -6643,67 +6641,67 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>614</v>
+      </c>
+      <c r="C62" t="s">
+        <v>615</v>
+      </c>
+      <c r="D62" t="s">
         <v>616</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>617</v>
       </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
         <v>618</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>619</v>
       </c>
-      <c r="F62" t="s">
-        <v>356</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>620</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>621</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>622</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L62" t="s">
         <v>623</v>
       </c>
-      <c r="K62" t="s">
-        <v>624</v>
-      </c>
-      <c r="L62" t="s">
-        <v>625</v>
-      </c>
       <c r="M62" t="s">
+        <v>736</v>
+      </c>
+      <c r="N62" t="s">
+        <v>737</v>
+      </c>
+      <c r="O62" t="s">
         <v>738</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>739</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
         <v>740</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>741</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="S62" t="s">
         <v>742</v>
       </c>
-      <c r="R62" t="s">
+      <c r="T62" t="s">
         <v>743</v>
       </c>
-      <c r="S62" t="s">
+      <c r="U62" t="s">
         <v>744</v>
       </c>
-      <c r="T62" t="s">
+      <c r="V62" t="s">
         <v>745</v>
-      </c>
-      <c r="U62" t="s">
-        <v>746</v>
-      </c>
-      <c r="V62" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6712,67 +6710,67 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>624</v>
+      </c>
+      <c r="C63" t="s">
+        <v>625</v>
+      </c>
+      <c r="D63" t="s">
         <v>626</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>627</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>628</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>629</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>630</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>631</v>
       </c>
-      <c r="H63" t="s">
+      <c r="J63" t="s">
         <v>632</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>633</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L63" t="s">
         <v>634</v>
       </c>
-      <c r="K63" t="s">
-        <v>635</v>
-      </c>
-      <c r="L63" t="s">
-        <v>636</v>
-      </c>
       <c r="M63" t="s">
+        <v>746</v>
+      </c>
+      <c r="N63" t="s">
+        <v>747</v>
+      </c>
+      <c r="O63" t="s">
         <v>748</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
         <v>749</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>750</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>751</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>752</v>
       </c>
-      <c r="R63" t="s">
+      <c r="T63" t="s">
         <v>753</v>
       </c>
-      <c r="S63" t="s">
+      <c r="U63" t="s">
         <v>754</v>
       </c>
-      <c r="T63" t="s">
+      <c r="V63" t="s">
         <v>755</v>
-      </c>
-      <c r="U63" t="s">
-        <v>756</v>
-      </c>
-      <c r="V63" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6781,7 +6779,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -6847,67 +6845,67 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>636</v>
+      </c>
+      <c r="C65" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" t="s">
         <v>638</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>639</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>640</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
+        <v>640</v>
+      </c>
+      <c r="H65" t="s">
         <v>641</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>642</v>
       </c>
-      <c r="G65" t="s">
-        <v>642</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>643</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>644</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L65" t="s">
         <v>645</v>
       </c>
-      <c r="K65" t="s">
-        <v>646</v>
-      </c>
-      <c r="L65" t="s">
-        <v>647</v>
-      </c>
       <c r="M65" t="s">
+        <v>756</v>
+      </c>
+      <c r="N65" t="s">
+        <v>473</v>
+      </c>
+      <c r="O65" t="s">
+        <v>757</v>
+      </c>
+      <c r="P65" t="s">
         <v>758</v>
       </c>
-      <c r="N65" t="s">
-        <v>475</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>759</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
+        <v>747</v>
+      </c>
+      <c r="S65" t="s">
         <v>760</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="T65" t="s">
+        <v>759</v>
+      </c>
+      <c r="U65" t="s">
         <v>761</v>
       </c>
-      <c r="R65" t="s">
-        <v>749</v>
-      </c>
-      <c r="S65" t="s">
+      <c r="V65" t="s">
         <v>762</v>
-      </c>
-      <c r="T65" t="s">
-        <v>761</v>
-      </c>
-      <c r="U65" t="s">
-        <v>763</v>
-      </c>
-      <c r="V65" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6916,64 +6914,64 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>646</v>
+      </c>
+      <c r="C66" t="s">
+        <v>647</v>
+      </c>
+      <c r="D66" t="s">
         <v>648</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>649</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>650</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
+        <v>650</v>
+      </c>
+      <c r="H66" t="s">
         <v>651</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>652</v>
       </c>
-      <c r="G66" t="s">
-        <v>652</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="J66" t="s">
         <v>653</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>654</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>655</v>
       </c>
-      <c r="K66" t="s">
-        <v>656</v>
-      </c>
-      <c r="L66" t="s">
-        <v>657</v>
-      </c>
       <c r="M66" t="s">
+        <v>763</v>
+      </c>
+      <c r="O66" t="s">
+        <v>764</v>
+      </c>
+      <c r="P66" t="s">
         <v>765</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>766</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
+        <v>473</v>
+      </c>
+      <c r="S66" t="s">
+        <v>473</v>
+      </c>
+      <c r="T66" t="s">
         <v>767</v>
       </c>
-      <c r="Q66" t="s">
-        <v>768</v>
-      </c>
-      <c r="R66" t="s">
-        <v>475</v>
-      </c>
-      <c r="S66" t="s">
-        <v>475</v>
-      </c>
-      <c r="T66" t="s">
-        <v>769</v>
-      </c>
       <c r="U66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -6982,67 +6980,67 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C67" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E67" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G67" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J67" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Q67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="R67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="S67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T67" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -7057,37 +7055,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L69" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -7096,67 +7094,67 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>658</v>
+      </c>
+      <c r="C70" t="s">
+        <v>659</v>
+      </c>
+      <c r="D70" t="s">
         <v>660</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>661</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>662</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>663</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>664</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>665</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>666</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>667</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>668</v>
       </c>
-      <c r="K70" t="s">
-        <v>669</v>
-      </c>
-      <c r="L70" t="s">
-        <v>670</v>
-      </c>
       <c r="M70" t="s">
+        <v>769</v>
+      </c>
+      <c r="N70" t="s">
+        <v>770</v>
+      </c>
+      <c r="O70" t="s">
         <v>771</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>772</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>773</v>
       </c>
-      <c r="P70" t="s">
+      <c r="R70" t="s">
         <v>774</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="S70" t="s">
         <v>775</v>
       </c>
-      <c r="R70" t="s">
+      <c r="T70" t="s">
         <v>776</v>
       </c>
-      <c r="S70" t="s">
+      <c r="U70" t="s">
         <v>777</v>
       </c>
-      <c r="T70" t="s">
+      <c r="V70" t="s">
         <v>778</v>
-      </c>
-      <c r="U70" t="s">
-        <v>779</v>
-      </c>
-      <c r="V70" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -7165,67 +7163,67 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>669</v>
+      </c>
+      <c r="C71" t="s">
+        <v>670</v>
+      </c>
+      <c r="D71" t="s">
         <v>671</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>672</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>673</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>674</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>675</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>676</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>677</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>678</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>679</v>
       </c>
-      <c r="K71" t="s">
-        <v>680</v>
-      </c>
-      <c r="L71" t="s">
-        <v>681</v>
-      </c>
       <c r="M71" t="s">
+        <v>779</v>
+      </c>
+      <c r="N71" t="s">
+        <v>780</v>
+      </c>
+      <c r="O71" t="s">
         <v>781</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" t="s">
         <v>782</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
+        <v>693</v>
+      </c>
+      <c r="R71" t="s">
         <v>783</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" t="s">
         <v>784</v>
       </c>
-      <c r="Q71" t="s">
-        <v>695</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="T71" t="s">
         <v>785</v>
       </c>
-      <c r="S71" t="s">
+      <c r="U71" t="s">
         <v>786</v>
       </c>
-      <c r="T71" t="s">
+      <c r="V71" t="s">
         <v>787</v>
-      </c>
-      <c r="U71" t="s">
-        <v>788</v>
-      </c>
-      <c r="V71" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -7234,67 +7232,67 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>680</v>
+      </c>
+      <c r="C72" t="s">
+        <v>681</v>
+      </c>
+      <c r="D72" t="s">
         <v>682</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>683</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
+        <v>492</v>
+      </c>
+      <c r="G72" t="s">
         <v>684</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>685</v>
       </c>
-      <c r="F72" t="s">
-        <v>494</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>686</v>
       </c>
-      <c r="H72" t="s">
+      <c r="J72" t="s">
         <v>687</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K72" t="s">
         <v>688</v>
       </c>
-      <c r="J72" t="s">
+      <c r="L72" t="s">
         <v>689</v>
       </c>
-      <c r="K72" t="s">
-        <v>690</v>
-      </c>
-      <c r="L72" t="s">
-        <v>691</v>
-      </c>
       <c r="M72" t="s">
+        <v>788</v>
+      </c>
+      <c r="N72" t="s">
+        <v>789</v>
+      </c>
+      <c r="O72" t="s">
         <v>790</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
         <v>791</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>792</v>
       </c>
-      <c r="P72" t="s">
+      <c r="R72" t="s">
         <v>793</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" t="s">
         <v>794</v>
       </c>
-      <c r="R72" t="s">
+      <c r="T72" t="s">
         <v>795</v>
       </c>
-      <c r="S72" t="s">
+      <c r="U72" t="s">
         <v>796</v>
       </c>
-      <c r="T72" t="s">
+      <c r="V72" t="s">
         <v>797</v>
-      </c>
-      <c r="U72" t="s">
-        <v>798</v>
-      </c>
-      <c r="V72" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -7303,67 +7301,67 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>690</v>
+      </c>
+      <c r="C73" t="s">
+        <v>691</v>
+      </c>
+      <c r="D73" t="s">
         <v>692</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>693</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>694</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>695</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>696</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>697</v>
       </c>
-      <c r="H73" t="s">
+      <c r="J73" t="s">
         <v>698</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>699</v>
       </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
         <v>700</v>
       </c>
-      <c r="K73" t="s">
-        <v>701</v>
-      </c>
-      <c r="L73" t="s">
-        <v>702</v>
-      </c>
       <c r="M73" t="s">
+        <v>798</v>
+      </c>
+      <c r="N73" t="s">
+        <v>799</v>
+      </c>
+      <c r="O73" t="s">
         <v>800</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>801</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>802</v>
       </c>
-      <c r="P73" t="s">
+      <c r="R73" t="s">
         <v>803</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="S73" t="s">
         <v>804</v>
       </c>
-      <c r="R73" t="s">
+      <c r="T73" t="s">
+        <v>247</v>
+      </c>
+      <c r="U73" t="s">
         <v>805</v>
       </c>
-      <c r="S73" t="s">
+      <c r="V73" t="s">
         <v>806</v>
-      </c>
-      <c r="T73" t="s">
-        <v>249</v>
-      </c>
-      <c r="U73" t="s">
-        <v>807</v>
-      </c>
-      <c r="V73" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -7372,37 +7370,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7411,67 +7409,67 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>702</v>
+      </c>
+      <c r="C75" t="s">
+        <v>703</v>
+      </c>
+      <c r="D75" t="s">
         <v>704</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>705</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
         <v>706</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>707</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>708</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>709</v>
       </c>
-      <c r="H75" t="s">
+      <c r="J75" t="s">
         <v>710</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>711</v>
       </c>
-      <c r="J75" t="s">
+      <c r="L75" t="s">
         <v>712</v>
       </c>
-      <c r="K75" t="s">
-        <v>713</v>
-      </c>
-      <c r="L75" t="s">
-        <v>714</v>
-      </c>
       <c r="M75" t="s">
+        <v>807</v>
+      </c>
+      <c r="N75" t="s">
+        <v>808</v>
+      </c>
+      <c r="O75" t="s">
         <v>809</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>810</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>811</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>812</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>813</v>
       </c>
-      <c r="R75" t="s">
+      <c r="T75" t="s">
         <v>814</v>
       </c>
-      <c r="S75" t="s">
+      <c r="U75" t="s">
         <v>815</v>
       </c>
-      <c r="T75" t="s">
+      <c r="V75" t="s">
         <v>816</v>
-      </c>
-      <c r="U75" t="s">
-        <v>817</v>
-      </c>
-      <c r="V75" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7480,22 +7478,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>713</v>
+      </c>
+      <c r="C76" t="s">
+        <v>714</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" t="s">
+        <v>256</v>
+      </c>
+      <c r="G76" t="s">
         <v>715</v>
-      </c>
-      <c r="C76" t="s">
-        <v>716</v>
-      </c>
-      <c r="D76" t="s">
-        <v>377</v>
-      </c>
-      <c r="E76" t="s">
-        <v>394</v>
-      </c>
-      <c r="F76" t="s">
-        <v>258</v>
-      </c>
-      <c r="G76" t="s">
-        <v>717</v>
       </c>
       <c r="H76" t="s">
         <v>81</v>
@@ -7507,40 +7505,40 @@
         <v>199</v>
       </c>
       <c r="K76" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L76" t="s">
         <v>200</v>
       </c>
       <c r="M76" t="s">
+        <v>817</v>
+      </c>
+      <c r="N76" t="s">
+        <v>818</v>
+      </c>
+      <c r="O76" t="s">
         <v>819</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>820</v>
-      </c>
-      <c r="O76" t="s">
-        <v>821</v>
-      </c>
-      <c r="P76" t="s">
-        <v>822</v>
       </c>
       <c r="Q76" t="s">
         <v>43</v>
       </c>
       <c r="R76" t="s">
+        <v>821</v>
+      </c>
+      <c r="S76" t="s">
+        <v>326</v>
+      </c>
+      <c r="T76" t="s">
+        <v>822</v>
+      </c>
+      <c r="U76" t="s">
+        <v>392</v>
+      </c>
+      <c r="V76" t="s">
         <v>823</v>
-      </c>
-      <c r="S76" t="s">
-        <v>328</v>
-      </c>
-      <c r="T76" t="s">
-        <v>824</v>
-      </c>
-      <c r="U76" t="s">
-        <v>394</v>
-      </c>
-      <c r="V76" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7549,7 +7547,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -7585,64 +7583,64 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>718</v>
+      </c>
+      <c r="C78" t="s">
+        <v>403</v>
+      </c>
+      <c r="D78" t="s">
+        <v>716</v>
+      </c>
+      <c r="E78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F78" t="s">
+        <v>719</v>
+      </c>
+      <c r="G78" t="s">
+        <v>514</v>
+      </c>
+      <c r="H78" t="s">
         <v>720</v>
       </c>
-      <c r="C78" t="s">
-        <v>405</v>
-      </c>
-      <c r="D78" t="s">
-        <v>718</v>
-      </c>
-      <c r="E78" t="s">
-        <v>305</v>
-      </c>
-      <c r="F78" t="s">
-        <v>721</v>
-      </c>
-      <c r="G78" t="s">
-        <v>516</v>
-      </c>
-      <c r="H78" t="s">
-        <v>722</v>
-      </c>
       <c r="I78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M78" t="s">
+        <v>824</v>
+      </c>
+      <c r="N78" t="s">
+        <v>520</v>
+      </c>
+      <c r="O78" t="s">
+        <v>723</v>
+      </c>
+      <c r="P78" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>492</v>
+      </c>
+      <c r="R78" t="s">
+        <v>822</v>
+      </c>
+      <c r="S78" t="s">
+        <v>825</v>
+      </c>
+      <c r="T78" t="s">
         <v>826</v>
       </c>
-      <c r="N78" t="s">
-        <v>522</v>
-      </c>
-      <c r="O78" t="s">
-        <v>725</v>
-      </c>
-      <c r="P78" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>494</v>
-      </c>
-      <c r="R78" t="s">
-        <v>824</v>
-      </c>
-      <c r="S78" t="s">
-        <v>827</v>
-      </c>
-      <c r="T78" t="s">
-        <v>828</v>
-      </c>
       <c r="U78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="V78" t="s">
         <v>93</v>
@@ -7654,67 +7652,67 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>721</v>
+      </c>
+      <c r="C79" t="s">
+        <v>722</v>
+      </c>
+      <c r="D79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" t="s">
         <v>723</v>
-      </c>
-      <c r="C79" t="s">
-        <v>724</v>
-      </c>
-      <c r="D79" t="s">
-        <v>395</v>
-      </c>
-      <c r="E79" t="s">
-        <v>725</v>
       </c>
       <c r="F79" t="s">
         <v>93</v>
       </c>
       <c r="G79" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J79" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M79" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O79" t="s">
+        <v>827</v>
+      </c>
+      <c r="P79" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>307</v>
+      </c>
+      <c r="R79" t="s">
+        <v>828</v>
+      </c>
+      <c r="S79" t="s">
+        <v>451</v>
+      </c>
+      <c r="T79" t="s">
+        <v>303</v>
+      </c>
+      <c r="U79" t="s">
+        <v>303</v>
+      </c>
+      <c r="V79" t="s">
         <v>829</v>
-      </c>
-      <c r="P79" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>309</v>
-      </c>
-      <c r="R79" t="s">
-        <v>830</v>
-      </c>
-      <c r="S79" t="s">
-        <v>453</v>
-      </c>
-      <c r="T79" t="s">
-        <v>305</v>
-      </c>
-      <c r="U79" t="s">
-        <v>305</v>
-      </c>
-      <c r="V79" t="s">
-        <v>831</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/cities13-14/1/d12.xlsx
+++ b/migforecasting/cities13-14/1/d12.xlsx
@@ -764,10 +764,6 @@
     <t>Раменское</t>
   </si>
   <si>
-    <t>Сергиев 
-Посад</t>
-  </si>
-  <si>
     <t>Серпухов</t>
   </si>
   <si>
@@ -2588,6 +2584,9 @@
   </si>
   <si>
     <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
   </si>
 </sst>
 </file>
@@ -2956,7 +2955,7 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3034,7 +3033,7 @@
         <v>236</v>
       </c>
       <c r="N2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O2" t="s">
         <v>237</v>
@@ -3046,19 +3045,19 @@
         <v>239</v>
       </c>
       <c r="R2" t="s">
+        <v>832</v>
+      </c>
+      <c r="S2" t="s">
         <v>240</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>241</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>242</v>
       </c>
-      <c r="U2" t="s">
-        <v>243</v>
-      </c>
       <c r="V2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3202,34 +3201,34 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" t="s">
         <v>244</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>245</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>246</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>247</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>248</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>249</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>250</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>251</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>252</v>
-      </c>
-      <c r="V5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3332,34 +3331,34 @@
         <v>33</v>
       </c>
       <c r="M7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7" t="s">
         <v>254</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>255</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>258</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>259</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>260</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>261</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>262</v>
-      </c>
-      <c r="V7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3400,25 +3399,25 @@
         <v>44</v>
       </c>
       <c r="M8" t="s">
+        <v>263</v>
+      </c>
+      <c r="N8" t="s">
         <v>264</v>
-      </c>
-      <c r="N8" t="s">
-        <v>265</v>
       </c>
       <c r="O8" t="s">
         <v>68</v>
       </c>
       <c r="P8" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" t="s">
         <v>266</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>267</v>
       </c>
       <c r="R8" t="s">
         <v>188</v>
       </c>
       <c r="S8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -3427,7 +3426,7 @@
         <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3468,34 +3467,34 @@
         <v>55</v>
       </c>
       <c r="M9" t="s">
+        <v>269</v>
+      </c>
+      <c r="N9" t="s">
         <v>270</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>271</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>272</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>273</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>274</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>275</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>276</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>277</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>278</v>
-      </c>
-      <c r="V9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3539,31 +3538,31 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
+        <v>279</v>
+      </c>
+      <c r="O10" t="s">
         <v>280</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>281</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>282</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>283</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>284</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>285</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>286</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>287</v>
-      </c>
-      <c r="V10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3604,28 +3603,28 @@
         <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P11" t="s">
         <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R11" t="s">
         <v>80</v>
       </c>
       <c r="S11" t="s">
+        <v>291</v>
+      </c>
+      <c r="T11" t="s">
         <v>292</v>
-      </c>
-      <c r="T11" t="s">
-        <v>293</v>
       </c>
       <c r="U11" t="s">
         <v>77</v>
@@ -3672,25 +3671,25 @@
         <v>86</v>
       </c>
       <c r="M12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" t="s">
         <v>294</v>
-      </c>
-      <c r="N12" t="s">
-        <v>295</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q12" t="s">
+        <v>295</v>
+      </c>
+      <c r="R12" t="s">
         <v>296</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>297</v>
-      </c>
-      <c r="S12" t="s">
-        <v>298</v>
       </c>
       <c r="T12" t="s">
         <v>186</v>
@@ -3740,34 +3739,34 @@
         <v>96</v>
       </c>
       <c r="M13" t="s">
+        <v>298</v>
+      </c>
+      <c r="N13" t="s">
         <v>299</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>300</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>301</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>302</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>303</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>304</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>305</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>306</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>307</v>
-      </c>
-      <c r="V13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3808,34 +3807,34 @@
         <v>107</v>
       </c>
       <c r="M14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N14" t="s">
         <v>309</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>310</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>311</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>312</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>313</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>314</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>315</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>316</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>317</v>
-      </c>
-      <c r="V14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3914,34 +3913,34 @@
         <v>117</v>
       </c>
       <c r="M16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" t="s">
         <v>319</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>320</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>321</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>322</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>323</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>319</v>
+      </c>
+      <c r="T16" t="s">
         <v>324</v>
-      </c>
-      <c r="S16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T16" t="s">
-        <v>325</v>
       </c>
       <c r="U16" t="s">
         <v>165</v>
       </c>
       <c r="V16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3985,10 +3984,10 @@
         <v>126</v>
       </c>
       <c r="N17" t="s">
+        <v>326</v>
+      </c>
+      <c r="O17" t="s">
         <v>327</v>
-      </c>
-      <c r="O17" t="s">
-        <v>328</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3997,7 +3996,7 @@
         <v>126</v>
       </c>
       <c r="R17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S17" t="s">
         <v>126</v>
@@ -4009,7 +4008,7 @@
         <v>126</v>
       </c>
       <c r="V17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -4053,10 +4052,10 @@
         <v>270</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="P18" s="2">
         <v>140</v>
@@ -4065,19 +4064,19 @@
         <v>135</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S18" s="2">
         <v>220</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U18" s="2">
         <v>200</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -4118,34 +4117,34 @@
         <v>138</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -4186,34 +4185,34 @@
         <v>149</v>
       </c>
       <c r="M20" t="s">
+        <v>336</v>
+      </c>
+      <c r="N20" t="s">
         <v>337</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>338</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>339</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>340</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>341</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>342</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>343</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>344</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>345</v>
-      </c>
-      <c r="V20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -4257,7 +4256,7 @@
         <v>126</v>
       </c>
       <c r="N21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O21" t="s">
         <v>126</v>
@@ -4269,7 +4268,7 @@
         <v>126</v>
       </c>
       <c r="R21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S21" t="s">
         <v>126</v>
@@ -4281,7 +4280,7 @@
         <v>126</v>
       </c>
       <c r="V21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -4325,31 +4324,31 @@
         <v>136</v>
       </c>
       <c r="N22" t="s">
+        <v>349</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
         <v>350</v>
       </c>
-      <c r="O22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P22" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>136</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
+        <v>136</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" t="s">
+        <v>136</v>
+      </c>
+      <c r="V22" t="s">
         <v>351</v>
-      </c>
-      <c r="S22" t="s">
-        <v>136</v>
-      </c>
-      <c r="T22" t="s">
-        <v>136</v>
-      </c>
-      <c r="U22" t="s">
-        <v>136</v>
-      </c>
-      <c r="V22" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -4390,34 +4389,34 @@
         <v>173</v>
       </c>
       <c r="M23" t="s">
+        <v>352</v>
+      </c>
+      <c r="N23" t="s">
         <v>353</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>354</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>355</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>356</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>357</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>358</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>359</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>360</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>361</v>
-      </c>
-      <c r="V23" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -4458,16 +4457,16 @@
         <v>183</v>
       </c>
       <c r="M24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N24" t="s">
         <v>176</v>
       </c>
       <c r="O24" t="s">
+        <v>363</v>
+      </c>
+      <c r="P24" t="s">
         <v>364</v>
-      </c>
-      <c r="P24" t="s">
-        <v>365</v>
       </c>
       <c r="Q24" t="s">
         <v>178</v>
@@ -4479,13 +4478,13 @@
         <v>179</v>
       </c>
       <c r="T24" t="s">
+        <v>365</v>
+      </c>
+      <c r="U24" t="s">
         <v>366</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>367</v>
-      </c>
-      <c r="V24" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4558,7 +4557,7 @@
         <v>191</v>
       </c>
       <c r="M26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N26" t="s">
         <v>196</v>
@@ -4567,7 +4566,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q26" t="s">
         <v>187</v>
@@ -4576,13 +4575,13 @@
         <v>201</v>
       </c>
       <c r="S26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T26" t="s">
         <v>71</v>
       </c>
       <c r="U26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V26" t="s">
         <v>38</v>
@@ -4626,22 +4625,22 @@
         <v>88</v>
       </c>
       <c r="M27" t="s">
+        <v>371</v>
+      </c>
+      <c r="N27" t="s">
         <v>372</v>
-      </c>
-      <c r="N27" t="s">
-        <v>373</v>
       </c>
       <c r="O27" t="s">
         <v>71</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q27" t="s">
+        <v>373</v>
+      </c>
+      <c r="R27" t="s">
         <v>374</v>
-      </c>
-      <c r="R27" t="s">
-        <v>375</v>
       </c>
       <c r="S27" t="s">
         <v>88</v>
@@ -4705,10 +4704,10 @@
         <v>126</v>
       </c>
       <c r="N29" t="s">
+        <v>375</v>
+      </c>
+      <c r="O29" t="s">
         <v>376</v>
-      </c>
-      <c r="O29" t="s">
-        <v>377</v>
       </c>
       <c r="P29" t="s">
         <v>126</v>
@@ -4723,13 +4722,13 @@
         <v>126</v>
       </c>
       <c r="T29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U29" t="s">
         <v>126</v>
       </c>
       <c r="V29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4773,31 +4772,31 @@
         <v>136</v>
       </c>
       <c r="N30" t="s">
+        <v>379</v>
+      </c>
+      <c r="O30" t="s">
         <v>380</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" t="s">
+        <v>136</v>
+      </c>
+      <c r="T30" t="s">
+        <v>260</v>
+      </c>
+      <c r="U30" t="s">
+        <v>136</v>
+      </c>
+      <c r="V30" t="s">
         <v>381</v>
-      </c>
-      <c r="P30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>136</v>
-      </c>
-      <c r="R30" t="s">
-        <v>136</v>
-      </c>
-      <c r="S30" t="s">
-        <v>136</v>
-      </c>
-      <c r="T30" t="s">
-        <v>261</v>
-      </c>
-      <c r="U30" t="s">
-        <v>136</v>
-      </c>
-      <c r="V30" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4849,10 +4848,10 @@
         <v>126</v>
       </c>
       <c r="N32" t="s">
+        <v>382</v>
+      </c>
+      <c r="O32" t="s">
         <v>383</v>
-      </c>
-      <c r="O32" t="s">
-        <v>384</v>
       </c>
       <c r="P32" t="s">
         <v>126</v>
@@ -4867,13 +4866,13 @@
         <v>126</v>
       </c>
       <c r="T32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U32" t="s">
         <v>126</v>
       </c>
       <c r="V32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -4917,10 +4916,10 @@
         <v>136</v>
       </c>
       <c r="N33" t="s">
+        <v>386</v>
+      </c>
+      <c r="O33" t="s">
         <v>387</v>
-      </c>
-      <c r="O33" t="s">
-        <v>388</v>
       </c>
       <c r="P33" t="s">
         <v>136</v>
@@ -4941,7 +4940,7 @@
         <v>136</v>
       </c>
       <c r="V33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -5018,7 +5017,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -5027,25 +5026,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" t="s">
         <v>391</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>392</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>393</v>
       </c>
-      <c r="E36" t="s">
-        <v>394</v>
-      </c>
       <c r="F36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G36" t="s">
         <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I36" t="s">
         <v>126</v>
@@ -5063,10 +5062,10 @@
         <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P36" t="s">
         <v>126</v>
@@ -5081,13 +5080,13 @@
         <v>126</v>
       </c>
       <c r="T36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U36" t="s">
         <v>126</v>
       </c>
       <c r="V36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -5099,23 +5098,23 @@
         <v>213</v>
       </c>
       <c r="C37" t="s">
+        <v>394</v>
+      </c>
+      <c r="D37" t="s">
         <v>395</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>396</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>397</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" t="s">
         <v>398</v>
       </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
-        <v>399</v>
-      </c>
       <c r="I37" t="s">
         <v>136</v>
       </c>
@@ -5132,31 +5131,31 @@
         <v>136</v>
       </c>
       <c r="N37" t="s">
+        <v>515</v>
+      </c>
+      <c r="O37" t="s">
         <v>516</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>136</v>
+      </c>
+      <c r="R37" t="s">
+        <v>136</v>
+      </c>
+      <c r="S37" t="s">
+        <v>136</v>
+      </c>
+      <c r="T37" t="s">
         <v>517</v>
       </c>
-      <c r="P37" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" t="s">
-        <v>136</v>
-      </c>
-      <c r="S37" t="s">
-        <v>136</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
+        <v>136</v>
+      </c>
+      <c r="V37" t="s">
         <v>518</v>
-      </c>
-      <c r="U37" t="s">
-        <v>136</v>
-      </c>
-      <c r="V37" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -5165,7 +5164,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
@@ -5234,7 +5233,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -5243,16 +5242,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" t="s">
         <v>402</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>403</v>
-      </c>
-      <c r="E40" t="s">
-        <v>404</v>
       </c>
       <c r="F40" t="s">
         <v>94</v>
@@ -5261,7 +5260,7 @@
         <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
         <v>126</v>
@@ -5279,10 +5278,10 @@
         <v>136</v>
       </c>
       <c r="N40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P40" t="s">
         <v>136</v>
@@ -5315,23 +5314,23 @@
         <v>213</v>
       </c>
       <c r="C41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" t="s">
         <v>405</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>406</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>407</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s">
         <v>408</v>
       </c>
-      <c r="G41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" t="s">
-        <v>409</v>
-      </c>
       <c r="I41" t="s">
         <v>136</v>
       </c>
@@ -5348,31 +5347,31 @@
         <v>136</v>
       </c>
       <c r="N41" t="s">
+        <v>520</v>
+      </c>
+      <c r="O41" t="s">
         <v>521</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" t="s">
+        <v>136</v>
+      </c>
+      <c r="S41" t="s">
+        <v>136</v>
+      </c>
+      <c r="T41" t="s">
         <v>522</v>
       </c>
-      <c r="P41" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" t="s">
-        <v>136</v>
-      </c>
-      <c r="S41" t="s">
-        <v>136</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
+        <v>136</v>
+      </c>
+      <c r="V41" t="s">
         <v>523</v>
-      </c>
-      <c r="U41" t="s">
-        <v>136</v>
-      </c>
-      <c r="V41" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -5381,7 +5380,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
@@ -5390,16 +5389,16 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" t="s">
         <v>411</v>
-      </c>
-      <c r="F42" t="s">
-        <v>412</v>
       </c>
       <c r="G42" t="s">
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I42" t="s">
         <v>126</v>
@@ -5435,13 +5434,13 @@
         <v>126</v>
       </c>
       <c r="T42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U42" t="s">
         <v>126</v>
       </c>
       <c r="V42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -5450,26 +5449,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
         <v>414</v>
       </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>415</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
         <v>416</v>
       </c>
-      <c r="G43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" t="s">
-        <v>417</v>
-      </c>
       <c r="I43" t="s">
         <v>136</v>
       </c>
@@ -5504,13 +5503,13 @@
         <v>136</v>
       </c>
       <c r="T43" t="s">
+        <v>526</v>
+      </c>
+      <c r="U43" t="s">
+        <v>136</v>
+      </c>
+      <c r="V43" t="s">
         <v>527</v>
-      </c>
-      <c r="U43" t="s">
-        <v>136</v>
-      </c>
-      <c r="V43" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -5519,67 +5518,67 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -5588,67 +5587,67 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C45" t="s">
         <v>419</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>420</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>421</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>422</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>423</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>424</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>425</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>426</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>427</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>428</v>
       </c>
-      <c r="L45" t="s">
-        <v>429</v>
-      </c>
       <c r="M45" t="s">
+        <v>529</v>
+      </c>
+      <c r="N45" t="s">
         <v>530</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>531</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>532</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>533</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>534</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>535</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>536</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>537</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>538</v>
-      </c>
-      <c r="V45" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5657,67 +5656,67 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>429</v>
+      </c>
+      <c r="C46" t="s">
         <v>430</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>431</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>432</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>433</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>434</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>435</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>436</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>437</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>438</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>439</v>
       </c>
-      <c r="L46" t="s">
-        <v>440</v>
-      </c>
       <c r="M46" t="s">
+        <v>539</v>
+      </c>
+      <c r="N46" t="s">
         <v>540</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>541</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>542</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>543</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>544</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>545</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>546</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>547</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>548</v>
-      </c>
-      <c r="V46" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5726,67 +5725,67 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>442</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>443</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>444</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>280</v>
+      </c>
+      <c r="H47" t="s">
         <v>445</v>
       </c>
-      <c r="G47" t="s">
-        <v>281</v>
-      </c>
-      <c r="H47" t="s">
-        <v>446</v>
-      </c>
       <c r="I47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J47" t="s">
         <v>214</v>
       </c>
       <c r="K47" t="s">
+        <v>446</v>
+      </c>
+      <c r="L47" t="s">
         <v>447</v>
       </c>
-      <c r="L47" t="s">
-        <v>448</v>
-      </c>
       <c r="M47" t="s">
+        <v>549</v>
+      </c>
+      <c r="N47" t="s">
         <v>550</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>551</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>552</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>553</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>554</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>555</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>556</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>557</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>558</v>
-      </c>
-      <c r="V47" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -5795,40 +5794,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
         <v>188</v>
       </c>
       <c r="D48" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" t="s">
         <v>450</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>451</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>452</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>453</v>
-      </c>
-      <c r="H48" t="s">
-        <v>454</v>
       </c>
       <c r="I48" t="s">
         <v>38</v>
       </c>
       <c r="J48" t="s">
+        <v>454</v>
+      </c>
+      <c r="K48" t="s">
         <v>455</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>456</v>
       </c>
-      <c r="L48" t="s">
-        <v>457</v>
-      </c>
       <c r="M48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N48" t="s">
         <v>70</v>
@@ -5837,25 +5836,25 @@
         <v>36</v>
       </c>
       <c r="P48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R48" t="s">
+        <v>560</v>
+      </c>
+      <c r="S48" t="s">
         <v>561</v>
-      </c>
-      <c r="S48" t="s">
-        <v>562</v>
       </c>
       <c r="T48" t="s">
         <v>203</v>
       </c>
       <c r="U48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5864,67 +5863,67 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="V49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -5933,67 +5932,67 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>458</v>
+      </c>
+      <c r="C50" t="s">
         <v>459</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>460</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>461</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>462</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>463</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>464</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>465</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>466</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>467</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>468</v>
       </c>
-      <c r="L50" t="s">
-        <v>469</v>
-      </c>
       <c r="M50" t="s">
+        <v>563</v>
+      </c>
+      <c r="N50" t="s">
         <v>564</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>565</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>566</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>567</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>568</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>569</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>570</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>571</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>572</v>
-      </c>
-      <c r="V50" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -6002,67 +6001,67 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -6071,7 +6070,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -6080,67 +6079,67 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" t="s">
         <v>472</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>473</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>472</v>
+      </c>
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" t="s">
         <v>474</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
+        <v>472</v>
+      </c>
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>472</v>
+      </c>
+      <c r="L53" t="s">
+        <v>472</v>
+      </c>
+      <c r="M53" t="s">
+        <v>472</v>
+      </c>
+      <c r="N53" t="s">
+        <v>472</v>
+      </c>
+      <c r="O53" t="s">
+        <v>472</v>
+      </c>
+      <c r="P53" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>472</v>
+      </c>
+      <c r="R53" t="s">
+        <v>474</v>
+      </c>
+      <c r="S53" t="s">
+        <v>474</v>
+      </c>
+      <c r="T53" t="s">
+        <v>472</v>
+      </c>
+      <c r="U53" t="s">
         <v>473</v>
       </c>
-      <c r="F53" t="s">
-        <v>473</v>
-      </c>
-      <c r="G53" t="s">
-        <v>475</v>
-      </c>
-      <c r="H53" t="s">
-        <v>473</v>
-      </c>
-      <c r="I53" t="s">
-        <v>473</v>
-      </c>
-      <c r="J53" t="s">
-        <v>475</v>
-      </c>
-      <c r="K53" t="s">
-        <v>473</v>
-      </c>
-      <c r="L53" t="s">
-        <v>473</v>
-      </c>
-      <c r="M53" t="s">
-        <v>473</v>
-      </c>
-      <c r="N53" t="s">
-        <v>473</v>
-      </c>
-      <c r="O53" t="s">
-        <v>473</v>
-      </c>
-      <c r="P53" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>473</v>
-      </c>
-      <c r="R53" t="s">
-        <v>475</v>
-      </c>
-      <c r="S53" t="s">
-        <v>475</v>
-      </c>
-      <c r="T53" t="s">
-        <v>473</v>
-      </c>
-      <c r="U53" t="s">
-        <v>474</v>
-      </c>
       <c r="V53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -6149,61 +6148,61 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>475</v>
+      </c>
+      <c r="C54" t="s">
         <v>476</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>363</v>
+      </c>
+      <c r="E54" t="s">
         <v>477</v>
       </c>
-      <c r="D54" t="s">
-        <v>364</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>478</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>479</v>
-      </c>
-      <c r="G54" t="s">
-        <v>480</v>
       </c>
       <c r="H54" t="s">
         <v>175</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J54" t="s">
+        <v>480</v>
+      </c>
+      <c r="K54" t="s">
         <v>481</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>482</v>
       </c>
-      <c r="L54" t="s">
-        <v>483</v>
-      </c>
       <c r="M54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N54" t="s">
         <v>178</v>
       </c>
       <c r="O54" t="s">
+        <v>574</v>
+      </c>
+      <c r="P54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q54" t="s">
         <v>575</v>
       </c>
-      <c r="P54" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>576</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>577</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>578</v>
-      </c>
-      <c r="T54" t="s">
-        <v>579</v>
       </c>
       <c r="U54" t="s">
         <v>183</v>
@@ -6218,67 +6217,67 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
         <v>484</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" t="s">
         <v>485</v>
-      </c>
-      <c r="D55" t="s">
-        <v>363</v>
-      </c>
-      <c r="E55" t="s">
-        <v>486</v>
       </c>
       <c r="F55" t="s">
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H55" t="s">
+        <v>486</v>
+      </c>
+      <c r="I55" t="s">
         <v>487</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>488</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
+        <v>486</v>
+      </c>
+      <c r="L55" t="s">
         <v>489</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>487</v>
-      </c>
-      <c r="L55" t="s">
-        <v>490</v>
-      </c>
-      <c r="M55" t="s">
-        <v>488</v>
       </c>
       <c r="N55" t="s">
         <v>44</v>
       </c>
       <c r="O55" t="s">
+        <v>579</v>
+      </c>
+      <c r="P55" t="s">
         <v>580</v>
       </c>
-      <c r="P55" t="s">
-        <v>581</v>
-      </c>
       <c r="Q55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S55" t="s">
         <v>44</v>
       </c>
       <c r="T55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -6287,7 +6286,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
@@ -6326,67 +6325,67 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" t="s">
         <v>472</v>
       </c>
-      <c r="C57" t="s">
-        <v>473</v>
-      </c>
       <c r="D57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="S57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -6395,67 +6394,67 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C58" t="s">
+        <v>492</v>
+      </c>
+      <c r="D58" t="s">
         <v>493</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>494</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>495</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>496</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>497</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>498</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>499</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>501</v>
       </c>
-      <c r="L58" t="s">
-        <v>502</v>
-      </c>
       <c r="M58" t="s">
+        <v>581</v>
+      </c>
+      <c r="N58" t="s">
         <v>582</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>583</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>584</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>585</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>586</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>587</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>588</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>589</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>590</v>
-      </c>
-      <c r="V58" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -6464,67 +6463,67 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C59" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" t="s">
         <v>503</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>504</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>505</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>506</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>507</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>508</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>509</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>510</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>511</v>
       </c>
-      <c r="L59" t="s">
-        <v>512</v>
-      </c>
       <c r="M59" t="s">
+        <v>591</v>
+      </c>
+      <c r="N59" t="s">
         <v>592</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>593</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>594</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>595</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>596</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>597</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>598</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>599</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>600</v>
-      </c>
-      <c r="V59" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -6533,37 +6532,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -6572,67 +6571,67 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>602</v>
+      </c>
+      <c r="C61" t="s">
         <v>603</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>604</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>605</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>606</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>607</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>608</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>609</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>610</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>611</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>612</v>
       </c>
-      <c r="L61" t="s">
-        <v>613</v>
-      </c>
       <c r="M61" t="s">
+        <v>725</v>
+      </c>
+      <c r="N61" t="s">
         <v>726</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>727</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>728</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>729</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>730</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>731</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>732</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>733</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>734</v>
-      </c>
-      <c r="V61" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -6641,67 +6640,67 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>613</v>
+      </c>
+      <c r="C62" t="s">
         <v>614</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>615</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>616</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>353</v>
+      </c>
+      <c r="G62" t="s">
         <v>617</v>
       </c>
-      <c r="F62" t="s">
-        <v>354</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>618</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>619</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>620</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>621</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>622</v>
       </c>
-      <c r="L62" t="s">
-        <v>623</v>
-      </c>
       <c r="M62" t="s">
+        <v>735</v>
+      </c>
+      <c r="N62" t="s">
         <v>736</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>737</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>738</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>739</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>740</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>741</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>742</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>743</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>744</v>
-      </c>
-      <c r="V62" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6710,67 +6709,67 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>623</v>
+      </c>
+      <c r="C63" t="s">
         <v>624</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>625</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>626</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>627</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>628</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>629</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>630</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>631</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>632</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>633</v>
       </c>
-      <c r="L63" t="s">
-        <v>634</v>
-      </c>
       <c r="M63" t="s">
+        <v>745</v>
+      </c>
+      <c r="N63" t="s">
         <v>746</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>747</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>748</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>749</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>750</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>751</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>752</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>753</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>754</v>
-      </c>
-      <c r="V63" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6779,7 +6778,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -6845,67 +6844,67 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>635</v>
+      </c>
+      <c r="C65" t="s">
         <v>636</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>637</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>638</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>639</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
+        <v>639</v>
+      </c>
+      <c r="H65" t="s">
         <v>640</v>
       </c>
-      <c r="G65" t="s">
-        <v>640</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>641</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>642</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>643</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>644</v>
       </c>
-      <c r="L65" t="s">
-        <v>645</v>
-      </c>
       <c r="M65" t="s">
+        <v>755</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
         <v>756</v>
       </c>
-      <c r="N65" t="s">
-        <v>473</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>757</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>758</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
+        <v>746</v>
+      </c>
+      <c r="S65" t="s">
         <v>759</v>
       </c>
-      <c r="R65" t="s">
-        <v>747</v>
-      </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
+        <v>758</v>
+      </c>
+      <c r="U65" t="s">
         <v>760</v>
       </c>
-      <c r="T65" t="s">
-        <v>759</v>
-      </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>761</v>
-      </c>
-      <c r="V65" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6914,64 +6913,64 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>645</v>
+      </c>
+      <c r="C66" t="s">
         <v>646</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>647</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>648</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>649</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
+        <v>649</v>
+      </c>
+      <c r="H66" t="s">
         <v>650</v>
       </c>
-      <c r="G66" t="s">
-        <v>650</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>651</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>652</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>653</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>654</v>
       </c>
-      <c r="L66" t="s">
-        <v>655</v>
-      </c>
       <c r="M66" t="s">
+        <v>762</v>
+      </c>
+      <c r="O66" t="s">
         <v>763</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>764</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>765</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
+        <v>472</v>
+      </c>
+      <c r="S66" t="s">
+        <v>472</v>
+      </c>
+      <c r="T66" t="s">
         <v>766</v>
       </c>
-      <c r="R66" t="s">
-        <v>473</v>
-      </c>
-      <c r="S66" t="s">
-        <v>473</v>
-      </c>
-      <c r="T66" t="s">
-        <v>767</v>
-      </c>
       <c r="U66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -6980,67 +6979,67 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J67" t="s">
+        <v>653</v>
+      </c>
+      <c r="K67" t="s">
         <v>654</v>
       </c>
-      <c r="K67" t="s">
-        <v>655</v>
-      </c>
       <c r="L67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q67" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T67" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -7055,37 +7054,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -7094,67 +7093,67 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>657</v>
+      </c>
+      <c r="C70" t="s">
         <v>658</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>659</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>660</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>661</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>662</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>663</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>664</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>665</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>666</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>667</v>
       </c>
-      <c r="L70" t="s">
-        <v>668</v>
-      </c>
       <c r="M70" t="s">
+        <v>768</v>
+      </c>
+      <c r="N70" t="s">
         <v>769</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>770</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>771</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>772</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>773</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>774</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>775</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>776</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>777</v>
-      </c>
-      <c r="V70" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -7163,67 +7162,67 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>668</v>
+      </c>
+      <c r="C71" t="s">
         <v>669</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>670</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>671</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>672</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>673</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>674</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>675</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>676</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>677</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>678</v>
       </c>
-      <c r="L71" t="s">
-        <v>679</v>
-      </c>
       <c r="M71" t="s">
+        <v>778</v>
+      </c>
+      <c r="N71" t="s">
         <v>779</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>780</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>781</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
+        <v>692</v>
+      </c>
+      <c r="R71" t="s">
         <v>782</v>
       </c>
-      <c r="Q71" t="s">
-        <v>693</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>783</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>784</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>785</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>786</v>
-      </c>
-      <c r="V71" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -7232,67 +7231,67 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>679</v>
+      </c>
+      <c r="C72" t="s">
         <v>680</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>681</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>682</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>491</v>
+      </c>
+      <c r="G72" t="s">
         <v>683</v>
       </c>
-      <c r="F72" t="s">
-        <v>492</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>684</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>685</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>686</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>687</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>688</v>
       </c>
-      <c r="L72" t="s">
-        <v>689</v>
-      </c>
       <c r="M72" t="s">
+        <v>787</v>
+      </c>
+      <c r="N72" t="s">
         <v>788</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>789</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>790</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>791</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>792</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>793</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>794</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>795</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>796</v>
-      </c>
-      <c r="V72" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -7301,67 +7300,67 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>689</v>
+      </c>
+      <c r="C73" t="s">
         <v>690</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>691</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>692</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>693</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>694</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>695</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>696</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>697</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>698</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>699</v>
       </c>
-      <c r="L73" t="s">
-        <v>700</v>
-      </c>
       <c r="M73" t="s">
+        <v>797</v>
+      </c>
+      <c r="N73" t="s">
         <v>798</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>799</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>800</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>801</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>802</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>803</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
+        <v>246</v>
+      </c>
+      <c r="U73" t="s">
         <v>804</v>
       </c>
-      <c r="T73" t="s">
-        <v>247</v>
-      </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>805</v>
-      </c>
-      <c r="V73" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -7370,37 +7369,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -7409,67 +7408,67 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>701</v>
+      </c>
+      <c r="C75" t="s">
         <v>702</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>703</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>704</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>705</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>706</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>707</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>708</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>709</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>710</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>711</v>
       </c>
-      <c r="L75" t="s">
-        <v>712</v>
-      </c>
       <c r="M75" t="s">
+        <v>806</v>
+      </c>
+      <c r="N75" t="s">
         <v>807</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>808</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>809</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>810</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>811</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>812</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>813</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>814</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>815</v>
-      </c>
-      <c r="V75" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7478,22 +7477,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>712</v>
+      </c>
+      <c r="C76" t="s">
         <v>713</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>374</v>
+      </c>
+      <c r="E76" t="s">
+        <v>391</v>
+      </c>
+      <c r="F76" t="s">
+        <v>255</v>
+      </c>
+      <c r="G76" t="s">
         <v>714</v>
-      </c>
-      <c r="D76" t="s">
-        <v>375</v>
-      </c>
-      <c r="E76" t="s">
-        <v>392</v>
-      </c>
-      <c r="F76" t="s">
-        <v>256</v>
-      </c>
-      <c r="G76" t="s">
-        <v>715</v>
       </c>
       <c r="H76" t="s">
         <v>81</v>
@@ -7505,40 +7504,40 @@
         <v>199</v>
       </c>
       <c r="K76" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L76" t="s">
         <v>200</v>
       </c>
       <c r="M76" t="s">
+        <v>816</v>
+      </c>
+      <c r="N76" t="s">
         <v>817</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>818</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>819</v>
-      </c>
-      <c r="P76" t="s">
-        <v>820</v>
       </c>
       <c r="Q76" t="s">
         <v>43</v>
       </c>
       <c r="R76" t="s">
+        <v>820</v>
+      </c>
+      <c r="S76" t="s">
+        <v>325</v>
+      </c>
+      <c r="T76" t="s">
         <v>821</v>
       </c>
-      <c r="S76" t="s">
-        <v>326</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
+        <v>391</v>
+      </c>
+      <c r="V76" t="s">
         <v>822</v>
-      </c>
-      <c r="U76" t="s">
-        <v>392</v>
-      </c>
-      <c r="V76" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -7547,7 +7546,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D77" t="s">
         <v>22</v>
@@ -7583,64 +7582,64 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>717</v>
+      </c>
+      <c r="C78" t="s">
+        <v>402</v>
+      </c>
+      <c r="D78" t="s">
+        <v>715</v>
+      </c>
+      <c r="E78" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" t="s">
         <v>718</v>
       </c>
-      <c r="C78" t="s">
-        <v>403</v>
-      </c>
-      <c r="D78" t="s">
-        <v>716</v>
-      </c>
-      <c r="E78" t="s">
-        <v>303</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
+        <v>513</v>
+      </c>
+      <c r="H78" t="s">
         <v>719</v>
       </c>
-      <c r="G78" t="s">
-        <v>514</v>
-      </c>
-      <c r="H78" t="s">
-        <v>720</v>
-      </c>
       <c r="I78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L78" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M78" t="s">
+        <v>823</v>
+      </c>
+      <c r="N78" t="s">
+        <v>519</v>
+      </c>
+      <c r="O78" t="s">
+        <v>722</v>
+      </c>
+      <c r="P78" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>491</v>
+      </c>
+      <c r="R78" t="s">
+        <v>821</v>
+      </c>
+      <c r="S78" t="s">
         <v>824</v>
       </c>
-      <c r="N78" t="s">
-        <v>520</v>
-      </c>
-      <c r="O78" t="s">
-        <v>723</v>
-      </c>
-      <c r="P78" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>492</v>
-      </c>
-      <c r="R78" t="s">
-        <v>822</v>
-      </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>825</v>
       </c>
-      <c r="T78" t="s">
-        <v>826</v>
-      </c>
       <c r="U78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="V78" t="s">
         <v>93</v>
@@ -7652,67 +7651,67 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>720</v>
+      </c>
+      <c r="C79" t="s">
         <v>721</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>392</v>
+      </c>
+      <c r="E79" t="s">
         <v>722</v>
-      </c>
-      <c r="D79" t="s">
-        <v>393</v>
-      </c>
-      <c r="E79" t="s">
-        <v>723</v>
       </c>
       <c r="F79" t="s">
         <v>93</v>
       </c>
       <c r="G79" t="s">
+        <v>723</v>
+      </c>
+      <c r="H79" t="s">
+        <v>402</v>
+      </c>
+      <c r="I79" t="s">
+        <v>403</v>
+      </c>
+      <c r="J79" t="s">
+        <v>472</v>
+      </c>
+      <c r="K79" t="s">
+        <v>392</v>
+      </c>
+      <c r="L79" t="s">
         <v>724</v>
       </c>
-      <c r="H79" t="s">
-        <v>403</v>
-      </c>
-      <c r="I79" t="s">
-        <v>404</v>
-      </c>
-      <c r="J79" t="s">
-        <v>473</v>
-      </c>
-      <c r="K79" t="s">
-        <v>393</v>
-      </c>
-      <c r="L79" t="s">
-        <v>725</v>
-      </c>
       <c r="M79" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O79" t="s">
+        <v>826</v>
+      </c>
+      <c r="P79" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>306</v>
+      </c>
+      <c r="R79" t="s">
         <v>827</v>
       </c>
-      <c r="P79" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>307</v>
-      </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
+        <v>450</v>
+      </c>
+      <c r="T79" t="s">
+        <v>302</v>
+      </c>
+      <c r="U79" t="s">
+        <v>302</v>
+      </c>
+      <c r="V79" t="s">
         <v>828</v>
-      </c>
-      <c r="S79" t="s">
-        <v>451</v>
-      </c>
-      <c r="T79" t="s">
-        <v>303</v>
-      </c>
-      <c r="U79" t="s">
-        <v>303</v>
-      </c>
-      <c r="V79" t="s">
-        <v>829</v>
       </c>
     </row>
   </sheetData>
